--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10635" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="68">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>CICLO: 2017-0</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -1789,7 +1792,7 @@
   </sheetPr>
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3560,10 +3563,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B12"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3572,92 +3575,79 @@
     <col min="2" max="2" width="46.5703125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="36" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="36">
-        <v>100026786</v>
+      <c r="B2" s="36" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="36">
-        <v>100029575</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="36">
-        <v>100025713</v>
+      <c r="B4" s="36" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="36">
-        <v>100027708</v>
+      <c r="B5" s="36" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="36">
-        <v>100026859</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="36">
-        <v>100018145</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="36">
-        <v>100026925</v>
+      <c r="B8" s="36" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="36">
-        <v>100028918</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="36">
-        <v>100024936</v>
-      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="36">
-        <v>100027651</v>
-      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="36">
-        <v>100023411</v>
+      <c r="B12" s="36" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10635" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="69">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>Suares Infante, Rocio</t>
   </si>
 </sst>
 </file>
@@ -1792,18 +1795,19 @@
   </sheetPr>
   <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="18" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="5" max="18" width="9.7109375" style="3" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1966,7 +1970,9 @@
       <c r="D6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1982,7 +1988,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="2">
         <f>ROUNDUP( 20  - COUNTIF(C6:R6,"") - COUNTIF(D6:R6,"F") - COUNTIF(D6:R6,"T")/2,0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1998,7 +2004,9 @@
       <c r="D7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -2014,7 +2022,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="2">
         <f t="shared" ref="S7:S22" si="0">ROUNDUP( 20  - COUNTIF(C7:R7,"") - COUNTIF(D7:R7,"F") - COUNTIF(D7:R7,"T")/2,0)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2030,7 +2038,9 @@
       <c r="D8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -2062,7 +2072,9 @@
       <c r="D9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -2078,7 +2090,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2094,7 +2106,9 @@
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -2110,7 +2124,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2126,7 +2140,9 @@
       <c r="D11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2158,7 +2174,9 @@
       <c r="D12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -2174,7 +2192,7 @@
       <c r="R12" s="6"/>
       <c r="S12" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2190,7 +2208,9 @@
       <c r="D13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -2206,7 +2226,7 @@
       <c r="R13" s="6"/>
       <c r="S13" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2222,7 +2242,9 @@
       <c r="D14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
@@ -2238,7 +2260,7 @@
       <c r="R14" s="6"/>
       <c r="S14" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2254,7 +2276,9 @@
       <c r="D15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
@@ -2270,7 +2294,7 @@
       <c r="R15" s="6"/>
       <c r="S15" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2286,7 +2310,9 @@
       <c r="D16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
@@ -2439,10 +2465,14 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="8"/>
+      <c r="B22" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="C22" s="38"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
@@ -2458,7 +2488,7 @@
       <c r="R22" s="6"/>
       <c r="S22" s="2">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -2475,7 +2505,7 @@
       </c>
       <c r="E23" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F23" s="40">
         <f t="shared" si="1"/>
@@ -2544,7 +2574,7 @@
       </c>
       <c r="E24" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F24" s="40">
         <f t="shared" si="2"/>
@@ -2613,7 +2643,7 @@
       </c>
       <c r="E25" s="40">
         <f t="shared" ref="E25:R25" si="3">COUNTIF(E6:E22,"=F") + COUNTIF(E6:E22,"=")</f>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F25" s="40">
         <f t="shared" si="3"/>
@@ -3565,7 +3595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="69">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -1799,15 +1799,15 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="18" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="5" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="18" width="9.7109375" style="3" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1973,7 +1973,9 @@
       <c r="E6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1988,7 +1990,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="2">
         <f>ROUNDUP( 20  - COUNTIF(C6:R6,"") - COUNTIF(D6:R6,"F") - COUNTIF(D6:R6,"T")/2,0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2007,7 +2009,9 @@
       <c r="E7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -2022,7 +2026,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="2">
         <f t="shared" ref="S7:S22" si="0">ROUNDUP( 20  - COUNTIF(C7:R7,"") - COUNTIF(D7:R7,"F") - COUNTIF(D7:R7,"T")/2,0)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2041,7 +2045,9 @@
       <c r="E8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -2056,7 +2062,7 @@
       <c r="R8" s="6"/>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2075,7 +2081,9 @@
       <c r="E9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -2090,7 +2098,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2109,7 +2117,9 @@
       <c r="E10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -2124,7 +2134,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2143,7 +2153,9 @@
       <c r="E11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -2158,7 +2170,7 @@
       <c r="R11" s="6"/>
       <c r="S11" s="2">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2177,7 +2189,9 @@
       <c r="E12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -2192,7 +2206,7 @@
       <c r="R12" s="6"/>
       <c r="S12" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2211,7 +2225,9 @@
       <c r="E13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -2226,7 +2242,7 @@
       <c r="R13" s="6"/>
       <c r="S13" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2245,7 +2261,9 @@
       <c r="E14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -2279,7 +2297,9 @@
       <c r="E15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -2294,7 +2314,7 @@
       <c r="R15" s="6"/>
       <c r="S15" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2313,7 +2333,9 @@
       <c r="E16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -2328,7 +2350,7 @@
       <c r="R16" s="6"/>
       <c r="S16" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2473,7 +2495,9 @@
       <c r="E22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -2509,7 +2533,7 @@
       </c>
       <c r="F23" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G23" s="40">
         <f t="shared" si="1"/>
@@ -2578,7 +2602,7 @@
       </c>
       <c r="F24" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G24" s="40">
         <f t="shared" si="2"/>
@@ -2647,7 +2671,7 @@
       </c>
       <c r="F25" s="40">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="G25" s="40">
         <f t="shared" si="3"/>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -15,7 +15,7 @@
     <sheet name="ESTUDIANTES" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ASISTENCIA!$A$1:$R$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ASISTENCIA!$A$1:$R$19</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="71">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -230,13 +230,19 @@
   </si>
   <si>
     <t>Suares Infante, Rocio</t>
+  </si>
+  <si>
+    <t>Certificado</t>
+  </si>
+  <si>
+    <t>si</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +317,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -370,7 +383,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -472,6 +485,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1793,21 +1809,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="5" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="18" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="7" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="18" width="9.7109375" style="3" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1976,7 +1992,9 @@
       <c r="F6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -1990,7 +2008,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="2">
         <f>ROUNDUP( 20  - COUNTIF(C6:R6,"") - COUNTIF(D6:R6,"F") - COUNTIF(D6:R6,"T")/2,0)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2012,7 +2030,9 @@
       <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -2025,8 +2045,8 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="2">
-        <f t="shared" ref="S7:S22" si="0">ROUNDUP( 20  - COUNTIF(C7:R7,"") - COUNTIF(D7:R7,"F") - COUNTIF(D7:R7,"T")/2,0)</f>
-        <v>8</v>
+        <f t="shared" ref="S7:S19" si="0">ROUNDUP( 20  - COUNTIF(C7:R7,"") - COUNTIF(D7:R7,"F") - COUNTIF(D7:R7,"T")/2,0)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2048,7 +2068,9 @@
       <c r="F8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -2084,7 +2106,9 @@
       <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -2098,7 +2122,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2120,7 +2144,9 @@
       <c r="F10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -2134,7 +2160,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2156,7 +2182,9 @@
       <c r="F11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -2170,7 +2198,7 @@
       <c r="R11" s="6"/>
       <c r="S11" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2192,7 +2220,9 @@
       <c r="F12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
@@ -2206,7 +2236,7 @@
       <c r="R12" s="6"/>
       <c r="S12" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2228,7 +2258,9 @@
       <c r="F13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="43" t="s">
+        <v>39</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -2264,7 +2296,9 @@
       <c r="F14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -2278,7 +2312,7 @@
       <c r="R14" s="6"/>
       <c r="S14" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2300,7 +2334,9 @@
       <c r="F15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -2314,7 +2350,7 @@
       <c r="R15" s="6"/>
       <c r="S15" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2336,7 +2372,9 @@
       <c r="F16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -2409,12 +2447,24 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
+      <c r="B19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -2428,298 +2478,214 @@
       <c r="R19" s="6"/>
       <c r="S19" s="2">
         <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B20" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="39">
+        <f>COUNTIF(C6:C19,"=P")</f>
+        <v>12</v>
+      </c>
+      <c r="D20" s="40">
+        <f>COUNTIF(D6:D19,"=P")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
+      <c r="E20" s="40">
+        <f>COUNTIF(E6:E19,"=P")</f>
+        <v>6</v>
+      </c>
+      <c r="F20" s="40">
+        <f>COUNTIF(F6:F19,"=P")</f>
+        <v>9</v>
+      </c>
+      <c r="G20" s="40">
+        <f>COUNTIF(G6:G19,"=P")</f>
+        <v>7</v>
+      </c>
+      <c r="H20" s="40">
+        <f>COUNTIF(H6:H19,"=P")</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="40">
+        <f>COUNTIF(I6:I19,"=P")</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="40">
+        <f>COUNTIF(J6:J19,"=P")</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="40">
+        <f>COUNTIF(K6:K19,"=P")</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="40">
+        <f>COUNTIF(L6:L19,"=P")</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="40">
+        <f>COUNTIF(M6:M19,"=P")</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="40">
+        <f>COUNTIF(N6:N19,"=P")</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="40">
+        <f>COUNTIF(O6:O19,"=P")</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="40">
+        <f>COUNTIF(P6:P19,"=P")</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="40">
+        <f>COUNTIF(Q6:Q19,"=P")</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="40">
+        <f>COUNTIF(R6:R19,"=P")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B21" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="2">
-        <f t="shared" si="0"/>
+      <c r="C21" s="39">
+        <f>COUNTIF(C6:C19,"=T")</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="40">
+        <f>COUNTIF(D6:D19,"=T")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <v>16</v>
-      </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="2">
-        <f t="shared" si="0"/>
+      <c r="E21" s="40">
+        <f>COUNTIF(E6:E19,"=T")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
+      <c r="F21" s="40">
+        <f>COUNTIF(F6:F19,"=T")</f>
+        <v>2</v>
+      </c>
+      <c r="G21" s="40">
+        <f>COUNTIF(G6:G19,"=T")</f>
+        <v>3</v>
+      </c>
+      <c r="H21" s="40">
+        <f>COUNTIF(H6:H19,"=T")</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="40">
+        <f>COUNTIF(I6:I19,"=T")</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="40">
+        <f>COUNTIF(J6:J19,"=T")</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="40">
+        <f>COUNTIF(K6:K19,"=T")</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="40">
+        <f>COUNTIF(L6:L19,"=T")</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="40">
+        <f>COUNTIF(M6:M19,"=T")</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="40">
+        <f>COUNTIF(N6:N19,"=T")</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="40">
+        <f>COUNTIF(O6:O19,"=T")</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="40">
+        <f>COUNTIF(P6:P19,"=T")</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="40">
+        <f>COUNTIF(Q6:Q19,"=T")</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="40">
+        <f>COUNTIF(R6:R19,"=T")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B22" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B23" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="39">
-        <f t="shared" ref="C23:R23" si="1">COUNTIF(C6:C22,"=P")</f>
-        <v>11</v>
-      </c>
-      <c r="D23" s="40">
-        <f t="shared" si="1"/>
+      <c r="C22" s="39">
+        <f>COUNTIF(C6:C19,"=F") + COUNTIF(C6:C19,"=")</f>
+        <v>2</v>
+      </c>
+      <c r="D22" s="40">
+        <f>COUNTIF(D6:D19,"=F") + COUNTIF(D6:D19,"=")</f>
+        <v>6</v>
+      </c>
+      <c r="E22" s="40">
+        <f>COUNTIF(E6:E19,"=F") + COUNTIF(E6:E19,"=")</f>
         <v>4</v>
       </c>
-      <c r="E23" s="40">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F23" s="40">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G23" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B24" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="39">
-        <f t="shared" ref="C24:R24" si="2">COUNTIF(C6:C22,"=T")</f>
-        <v>0</v>
-      </c>
-      <c r="D24" s="40">
-        <f t="shared" si="2"/>
+      <c r="F22" s="40">
+        <f>COUNTIF(F6:F19,"=F") + COUNTIF(F6:F19,"=")</f>
+        <v>3</v>
+      </c>
+      <c r="G22" s="40">
+        <f>COUNTIF(G6:G19,"=F") + COUNTIF(G6:G19,"=")</f>
         <v>4</v>
       </c>
-      <c r="E24" s="40">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F24" s="40">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G24" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="39">
-        <f>COUNTIF(C6:C22,"=F") + COUNTIF(C6:C22,"=")</f>
-        <v>6</v>
-      </c>
-      <c r="D25" s="40">
-        <f>COUNTIF(D6:D22,"=F") + COUNTIF(D6:D22,"=")</f>
-        <v>9</v>
-      </c>
-      <c r="E25" s="40">
-        <f t="shared" ref="E25:R25" si="3">COUNTIF(E6:E22,"=F") + COUNTIF(E6:E22,"=")</f>
-        <v>7</v>
-      </c>
-      <c r="F25" s="40">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="G25" s="40">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="H25" s="40">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="I25" s="40">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="J25" s="40">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="K25" s="40">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="L25" s="40">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="M25" s="40">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="N25" s="40">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="O25" s="40">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="P25" s="40">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="Q25" s="40">
-        <f t="shared" si="3"/>
-        <v>17</v>
-      </c>
-      <c r="R25" s="40">
-        <f t="shared" si="3"/>
-        <v>17</v>
+      <c r="H22" s="40">
+        <f>COUNTIF(H6:H19,"=F") + COUNTIF(H6:H19,"=")</f>
+        <v>14</v>
+      </c>
+      <c r="I22" s="40">
+        <f>COUNTIF(I6:I19,"=F") + COUNTIF(I6:I19,"=")</f>
+        <v>14</v>
+      </c>
+      <c r="J22" s="40">
+        <f>COUNTIF(J6:J19,"=F") + COUNTIF(J6:J19,"=")</f>
+        <v>14</v>
+      </c>
+      <c r="K22" s="40">
+        <f>COUNTIF(K6:K19,"=F") + COUNTIF(K6:K19,"=")</f>
+        <v>14</v>
+      </c>
+      <c r="L22" s="40">
+        <f>COUNTIF(L6:L19,"=F") + COUNTIF(L6:L19,"=")</f>
+        <v>14</v>
+      </c>
+      <c r="M22" s="40">
+        <f>COUNTIF(M6:M19,"=F") + COUNTIF(M6:M19,"=")</f>
+        <v>14</v>
+      </c>
+      <c r="N22" s="40">
+        <f>COUNTIF(N6:N19,"=F") + COUNTIF(N6:N19,"=")</f>
+        <v>14</v>
+      </c>
+      <c r="O22" s="40">
+        <f>COUNTIF(O6:O19,"=F") + COUNTIF(O6:O19,"=")</f>
+        <v>14</v>
+      </c>
+      <c r="P22" s="40">
+        <f>COUNTIF(P6:P19,"=F") + COUNTIF(P6:P19,"=")</f>
+        <v>14</v>
+      </c>
+      <c r="Q22" s="40">
+        <f>COUNTIF(Q6:Q19,"=F") + COUNTIF(Q6:Q19,"=")</f>
+        <v>14</v>
+      </c>
+      <c r="R22" s="40">
+        <f>COUNTIF(R6:R19,"=F") + COUNTIF(R6:R19,"=")</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2728,7 +2694,7 @@
   </sortState>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3617,24 +3583,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.28515625" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" style="36" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="36" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -3642,12 +3611,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -3655,25 +3624,28 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>43</v>
       </c>
       <c r="B5" s="36" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -3681,22 +3653,22 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -1811,7 +1811,7 @@
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -2486,67 +2486,67 @@
         <v>16</v>
       </c>
       <c r="C20" s="39">
-        <f>COUNTIF(C6:C19,"=P")</f>
+        <f t="shared" ref="C20:R20" si="1">COUNTIF(C6:C19,"=P")</f>
         <v>12</v>
       </c>
       <c r="D20" s="40">
-        <f>COUNTIF(D6:D19,"=P")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E20" s="40">
-        <f>COUNTIF(E6:E19,"=P")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F20" s="40">
-        <f>COUNTIF(F6:F19,"=P")</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G20" s="40">
-        <f>COUNTIF(G6:G19,"=P")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H20" s="40">
-        <f>COUNTIF(H6:H19,"=P")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="40">
-        <f>COUNTIF(I6:I19,"=P")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20" s="40">
-        <f>COUNTIF(J6:J19,"=P")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="40">
-        <f>COUNTIF(K6:K19,"=P")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L20" s="40">
-        <f>COUNTIF(L6:L19,"=P")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M20" s="40">
-        <f>COUNTIF(M6:M19,"=P")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N20" s="40">
-        <f>COUNTIF(N6:N19,"=P")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O20" s="40">
-        <f>COUNTIF(O6:O19,"=P")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P20" s="40">
-        <f>COUNTIF(P6:P19,"=P")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q20" s="40">
-        <f>COUNTIF(Q6:Q19,"=P")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R20" s="40">
-        <f>COUNTIF(R6:R19,"=P")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2555,67 +2555,67 @@
         <v>15</v>
       </c>
       <c r="C21" s="39">
-        <f>COUNTIF(C6:C19,"=T")</f>
+        <f t="shared" ref="C21:R21" si="2">COUNTIF(C6:C19,"=T")</f>
         <v>0</v>
       </c>
       <c r="D21" s="40">
-        <f>COUNTIF(D6:D19,"=T")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E21" s="40">
-        <f>COUNTIF(E6:E19,"=T")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F21" s="40">
-        <f>COUNTIF(F6:F19,"=T")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G21" s="40">
-        <f>COUNTIF(G6:G19,"=T")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H21" s="40">
-        <f>COUNTIF(H6:H19,"=T")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I21" s="40">
-        <f>COUNTIF(I6:I19,"=T")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J21" s="40">
-        <f>COUNTIF(J6:J19,"=T")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K21" s="40">
-        <f>COUNTIF(K6:K19,"=T")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L21" s="40">
-        <f>COUNTIF(L6:L19,"=T")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M21" s="40">
-        <f>COUNTIF(M6:M19,"=T")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N21" s="40">
-        <f>COUNTIF(N6:N19,"=T")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O21" s="40">
-        <f>COUNTIF(O6:O19,"=T")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="P21" s="40">
-        <f>COUNTIF(P6:P19,"=T")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q21" s="40">
-        <f>COUNTIF(Q6:Q19,"=T")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R21" s="40">
-        <f>COUNTIF(R6:R19,"=T")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2624,67 +2624,67 @@
         <v>17</v>
       </c>
       <c r="C22" s="39">
-        <f>COUNTIF(C6:C19,"=F") + COUNTIF(C6:C19,"=")</f>
+        <f t="shared" ref="C22:R22" si="3">COUNTIF(C6:C19,"=F") + COUNTIF(C6:C19,"=")</f>
         <v>2</v>
       </c>
       <c r="D22" s="40">
-        <f>COUNTIF(D6:D19,"=F") + COUNTIF(D6:D19,"=")</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E22" s="40">
-        <f>COUNTIF(E6:E19,"=F") + COUNTIF(E6:E19,"=")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F22" s="40">
-        <f>COUNTIF(F6:F19,"=F") + COUNTIF(F6:F19,"=")</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="G22" s="40">
-        <f>COUNTIF(G6:G19,"=F") + COUNTIF(G6:G19,"=")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H22" s="40">
-        <f>COUNTIF(H6:H19,"=F") + COUNTIF(H6:H19,"=")</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="I22" s="40">
-        <f>COUNTIF(I6:I19,"=F") + COUNTIF(I6:I19,"=")</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="J22" s="40">
-        <f>COUNTIF(J6:J19,"=F") + COUNTIF(J6:J19,"=")</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="K22" s="40">
-        <f>COUNTIF(K6:K19,"=F") + COUNTIF(K6:K19,"=")</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="L22" s="40">
-        <f>COUNTIF(L6:L19,"=F") + COUNTIF(L6:L19,"=")</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="M22" s="40">
-        <f>COUNTIF(M6:M19,"=F") + COUNTIF(M6:M19,"=")</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="N22" s="40">
-        <f>COUNTIF(N6:N19,"=F") + COUNTIF(N6:N19,"=")</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="O22" s="40">
-        <f>COUNTIF(O6:O19,"=F") + COUNTIF(O6:O19,"=")</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="P22" s="40">
-        <f>COUNTIF(P6:P19,"=F") + COUNTIF(P6:P19,"=")</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="Q22" s="40">
-        <f>COUNTIF(Q6:Q19,"=F") + COUNTIF(Q6:Q19,"=")</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="R22" s="40">
-        <f>COUNTIF(R6:R19,"=F") + COUNTIF(R6:R19,"=")</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
@@ -2894,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2938,7 +2938,9 @@
       <c r="B2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="12">
+        <v>16</v>
+      </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12">
@@ -2956,7 +2958,9 @@
       <c r="B3" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12">
+        <v>14</v>
+      </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12">
@@ -2974,7 +2978,9 @@
       <c r="B4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="12">
+        <v>19</v>
+      </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12">
@@ -2992,7 +2998,9 @@
       <c r="B5" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="12">
+        <v>17</v>
+      </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12">
@@ -3010,7 +3018,9 @@
       <c r="B6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="12">
+        <v>19</v>
+      </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12">
@@ -3028,7 +3038,9 @@
       <c r="B7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="12">
+        <v>14</v>
+      </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -3041,7 +3053,9 @@
       <c r="B8" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12">
+        <v>15</v>
+      </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -3054,7 +3068,9 @@
       <c r="B9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -3067,7 +3083,9 @@
       <c r="B10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12">
+        <v>14</v>
+      </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -3080,7 +3098,9 @@
       <c r="B11" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="12">
+        <v>13</v>
+      </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -3093,7 +3113,9 @@
       <c r="B12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="12">
+        <v>18</v>
+      </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12">

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="71">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -242,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,13 +317,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -383,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,9 +478,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1811,19 +1801,18 @@
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1:G1048576"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="7" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="18" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="18" width="9.7109375" style="3" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1995,7 +1984,9 @@
       <c r="G6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -2008,7 +1999,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="2">
         <f>ROUNDUP( 20  - COUNTIF(C6:R6,"") - COUNTIF(D6:R6,"F") - COUNTIF(D6:R6,"T")/2,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2033,7 +2024,9 @@
       <c r="G7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -2071,7 +2064,9 @@
       <c r="G8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -2084,7 +2079,7 @@
       <c r="R8" s="6"/>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2109,7 +2104,9 @@
       <c r="G9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="6"/>
+      <c r="H9" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -2147,7 +2144,9 @@
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -2185,7 +2184,9 @@
       <c r="G11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -2198,7 +2199,7 @@
       <c r="R11" s="6"/>
       <c r="S11" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2223,7 +2224,9 @@
       <c r="G12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -2236,7 +2239,7 @@
       <c r="R12" s="6"/>
       <c r="S12" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2258,10 +2261,12 @@
       <c r="F13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
@@ -2299,7 +2304,9 @@
       <c r="G14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -2312,7 +2319,7 @@
       <c r="R14" s="6"/>
       <c r="S14" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2337,7 +2344,9 @@
       <c r="G15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -2350,7 +2359,7 @@
       <c r="R15" s="6"/>
       <c r="S15" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2375,7 +2384,9 @@
       <c r="G16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -2388,7 +2399,7 @@
       <c r="R16" s="6"/>
       <c r="S16" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2451,7 +2462,7 @@
         <v>68</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>39</v>
@@ -2465,7 +2476,9 @@
       <c r="G19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
@@ -2487,7 +2500,7 @@
       </c>
       <c r="C20" s="39">
         <f t="shared" ref="C20:R20" si="1">COUNTIF(C6:C19,"=P")</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="40">
         <f t="shared" si="1"/>
@@ -2507,7 +2520,7 @@
       </c>
       <c r="H20" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I20" s="40">
         <f t="shared" si="1"/>
@@ -2576,7 +2589,7 @@
       </c>
       <c r="H21" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I21" s="40">
         <f t="shared" si="2"/>
@@ -2625,7 +2638,7 @@
       </c>
       <c r="C22" s="39">
         <f t="shared" ref="C22:R22" si="3">COUNTIF(C6:C19,"=F") + COUNTIF(C6:C19,"=")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="40">
         <f t="shared" si="3"/>
@@ -2645,7 +2658,7 @@
       </c>
       <c r="H22" s="40">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="I22" s="40">
         <f t="shared" si="3"/>
@@ -2894,7 +2907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="71">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -1805,14 +1805,15 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="18" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="8" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="9" max="18" width="9.7109375" style="3" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1987,7 +1988,9 @@
       <c r="H6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1999,7 +2002,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="2">
         <f>ROUNDUP( 20  - COUNTIF(C6:R6,"") - COUNTIF(D6:R6,"F") - COUNTIF(D6:R6,"T")/2,0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2027,7 +2030,9 @@
       <c r="H7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -2039,7 +2044,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="2">
         <f t="shared" ref="S7:S19" si="0">ROUNDUP( 20  - COUNTIF(C7:R7,"") - COUNTIF(D7:R7,"F") - COUNTIF(D7:R7,"T")/2,0)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2067,7 +2072,9 @@
       <c r="H8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -2079,7 +2086,7 @@
       <c r="R8" s="6"/>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2107,7 +2114,9 @@
       <c r="H9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -2119,7 +2128,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2147,7 +2156,9 @@
       <c r="H10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -2159,7 +2170,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2187,7 +2198,9 @@
       <c r="H11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -2227,7 +2240,9 @@
       <c r="H12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -2239,7 +2254,7 @@
       <c r="R12" s="6"/>
       <c r="S12" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2267,7 +2282,9 @@
       <c r="H13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -2279,7 +2296,7 @@
       <c r="R13" s="6"/>
       <c r="S13" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2307,7 +2324,9 @@
       <c r="H14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -2319,7 +2338,7 @@
       <c r="R14" s="6"/>
       <c r="S14" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2347,7 +2366,9 @@
       <c r="H15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -2359,7 +2380,7 @@
       <c r="R15" s="6"/>
       <c r="S15" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2387,7 +2408,9 @@
       <c r="H16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -2479,7 +2502,9 @@
       <c r="H19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -2491,7 +2516,7 @@
       <c r="R19" s="6"/>
       <c r="S19" s="2">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -2524,7 +2549,7 @@
       </c>
       <c r="I20" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J20" s="40">
         <f t="shared" si="1"/>
@@ -2593,7 +2618,7 @@
       </c>
       <c r="I21" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J21" s="40">
         <f t="shared" si="2"/>
@@ -2662,7 +2687,7 @@
       </c>
       <c r="I22" s="40">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J22" s="40">
         <f t="shared" si="3"/>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="71">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -1378,7 +1378,7 @@
     <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1386,8 +1386,8 @@
     <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="11.42578125" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
@@ -1438,13 +1438,15 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>11</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="11">
         <f>D2*0.2+E2*0.4+F2*0.05+G2*0.05+H2*0.1+I2*0.2</f>
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1459,13 +1461,15 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>8</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="11">
         <f t="shared" ref="J3:J18" si="0">D3*0.2+E3*0.4+F3*0.05+G3*0.05+H3*0.1+I3*0.2</f>
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1480,13 +1484,15 @@
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>19</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.95000000000000007</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1501,13 +1507,15 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2">
+        <v>11</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1522,13 +1530,15 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>8</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1541,13 +1551,15 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1562,13 +1574,15 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1583,7 +1597,9 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1604,13 +1620,15 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1625,13 +1643,15 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1646,13 +1666,15 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2">
+        <v>19</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.95000000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1694,10 +1716,14 @@
       <c r="B15" s="6">
         <v>14</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -1768,9 +1794,9 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="15" t="e">
+      <c r="F19" s="15">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>9.6666666666666661</v>
       </c>
       <c r="G19" s="15" t="e">
         <f t="shared" si="1"/>
@@ -1786,7 +1812,7 @@
       </c>
       <c r="J19" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.3411764705882353</v>
       </c>
     </row>
   </sheetData>
@@ -1805,15 +1831,15 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="8" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="9" max="18" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="9" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="18" width="9.7109375" style="3" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1991,7 +2017,9 @@
       <c r="I6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -2002,7 +2030,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="2">
         <f>ROUNDUP( 20  - COUNTIF(C6:R6,"") - COUNTIF(D6:R6,"F") - COUNTIF(D6:R6,"T")/2,0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2033,7 +2061,9 @@
       <c r="I7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -2075,7 +2105,9 @@
       <c r="I8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -2117,7 +2149,9 @@
       <c r="I9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -2128,7 +2162,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2159,7 +2193,9 @@
       <c r="I10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -2201,7 +2237,9 @@
       <c r="I11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -2212,7 +2250,7 @@
       <c r="R11" s="6"/>
       <c r="S11" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2243,7 +2281,9 @@
       <c r="I12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -2254,7 +2294,7 @@
       <c r="R12" s="6"/>
       <c r="S12" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2285,7 +2325,9 @@
       <c r="I13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -2296,7 +2338,7 @@
       <c r="R13" s="6"/>
       <c r="S13" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2327,7 +2369,9 @@
       <c r="I14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -2338,7 +2382,7 @@
       <c r="R14" s="6"/>
       <c r="S14" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2369,7 +2413,9 @@
       <c r="I15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -2380,7 +2426,7 @@
       <c r="R15" s="6"/>
       <c r="S15" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2411,7 +2457,9 @@
       <c r="I16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -2422,7 +2470,7 @@
       <c r="R16" s="6"/>
       <c r="S16" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2553,7 +2601,7 @@
       </c>
       <c r="J20" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K20" s="40">
         <f t="shared" si="1"/>
@@ -2622,7 +2670,7 @@
       </c>
       <c r="J21" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K21" s="40">
         <f t="shared" si="2"/>
@@ -2691,7 +2739,7 @@
       </c>
       <c r="J22" s="40">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K22" s="40">
         <f t="shared" si="3"/>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="72">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>si</t>
+  </si>
+  <si>
+    <t>Suarez Infante, Rocio</t>
   </si>
 </sst>
 </file>
@@ -1831,15 +1834,15 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="9" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="10" max="18" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="10" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="18" width="9.7109375" style="3" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2020,7 +2023,9 @@
       <c r="J6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="6"/>
+      <c r="K6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -2030,7 +2035,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="2">
         <f>ROUNDUP( 20  - COUNTIF(C6:R6,"") - COUNTIF(D6:R6,"F") - COUNTIF(D6:R6,"T")/2,0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2064,7 +2069,9 @@
       <c r="J7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -2074,7 +2081,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="2">
         <f t="shared" ref="S7:S19" si="0">ROUNDUP( 20  - COUNTIF(C7:R7,"") - COUNTIF(D7:R7,"F") - COUNTIF(D7:R7,"T")/2,0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2108,7 +2115,9 @@
       <c r="J8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -2118,7 +2127,7 @@
       <c r="R8" s="6"/>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2152,7 +2161,9 @@
       <c r="J9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -2162,7 +2173,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2196,7 +2207,9 @@
       <c r="J10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -2206,7 +2219,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2240,7 +2253,9 @@
       <c r="J11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -2250,7 +2265,7 @@
       <c r="R11" s="6"/>
       <c r="S11" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2284,7 +2299,9 @@
       <c r="J12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -2294,7 +2311,7 @@
       <c r="R12" s="6"/>
       <c r="S12" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2328,7 +2345,9 @@
       <c r="J13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -2338,7 +2357,7 @@
       <c r="R13" s="6"/>
       <c r="S13" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2372,7 +2391,9 @@
       <c r="J14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -2382,7 +2403,7 @@
       <c r="R14" s="6"/>
       <c r="S14" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2416,7 +2437,9 @@
       <c r="J15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -2460,7 +2483,9 @@
       <c r="J16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -2530,7 +2555,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>39</v>
@@ -2553,8 +2578,12 @@
       <c r="I19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="J19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -2564,7 +2593,7 @@
       <c r="R19" s="6"/>
       <c r="S19" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -2605,7 +2634,7 @@
       </c>
       <c r="K20" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L20" s="40">
         <f t="shared" si="1"/>
@@ -2670,11 +2699,11 @@
       </c>
       <c r="J21" s="40">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K21" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L21" s="40">
         <f t="shared" si="2"/>
@@ -2739,11 +2768,11 @@
       </c>
       <c r="J22" s="40">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K22" s="40">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L22" s="40">
         <f t="shared" si="3"/>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="72">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -1830,19 +1830,19 @@
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
+      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="10" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="18" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="11" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="18" width="9.7109375" style="3" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2026,7 +2026,9 @@
       <c r="K6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -2035,7 +2037,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="2">
         <f>ROUNDUP( 20  - COUNTIF(C6:R6,"") - COUNTIF(D6:R6,"F") - COUNTIF(D6:R6,"T")/2,0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2072,7 +2074,9 @@
       <c r="K7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -2081,7 +2085,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="2">
         <f t="shared" ref="S7:S19" si="0">ROUNDUP( 20  - COUNTIF(C7:R7,"") - COUNTIF(D7:R7,"F") - COUNTIF(D7:R7,"T")/2,0)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2118,7 +2122,9 @@
       <c r="K8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -2164,7 +2170,9 @@
       <c r="K9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -2173,7 +2181,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2210,7 +2218,9 @@
       <c r="K10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -2219,7 +2229,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2256,7 +2266,9 @@
       <c r="K11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -2265,7 +2277,7 @@
       <c r="R11" s="6"/>
       <c r="S11" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2302,7 +2314,9 @@
       <c r="K12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -2311,7 +2325,7 @@
       <c r="R12" s="6"/>
       <c r="S12" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2348,7 +2362,9 @@
       <c r="K13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -2357,7 +2373,7 @@
       <c r="R13" s="6"/>
       <c r="S13" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2394,7 +2410,9 @@
       <c r="K14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -2440,7 +2458,9 @@
       <c r="K15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -2449,7 +2469,7 @@
       <c r="R15" s="6"/>
       <c r="S15" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2486,7 +2506,9 @@
       <c r="K16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -2495,7 +2517,7 @@
       <c r="R16" s="6"/>
       <c r="S16" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2584,7 +2606,9 @@
       <c r="K19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -2593,7 +2617,7 @@
       <c r="R19" s="6"/>
       <c r="S19" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -2638,7 +2662,7 @@
       </c>
       <c r="L20" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M20" s="40">
         <f t="shared" si="1"/>
@@ -2707,7 +2731,7 @@
       </c>
       <c r="L21" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M21" s="40">
         <f t="shared" si="2"/>
@@ -2776,7 +2800,7 @@
       </c>
       <c r="L22" s="40">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M22" s="40">
         <f t="shared" si="3"/>
@@ -3009,8 +3033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3056,11 +3080,13 @@
       <c r="C2" s="12">
         <v>16</v>
       </c>
-      <c r="D2" s="12"/>
+      <c r="D2" s="12">
+        <v>18</v>
+      </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12">
         <f>ROUNDUP((SUM(C2:E2) - MIN(C2:E2))/2,0) + G2</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -3076,11 +3102,13 @@
       <c r="C3" s="12">
         <v>14</v>
       </c>
-      <c r="D3" s="12"/>
+      <c r="D3" s="12">
+        <v>15</v>
+      </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12">
-        <f t="shared" ref="F3:F18" si="0">ROUNDUP((SUM(C3:E3) - MIN(C3:E3))/2,0) + G3</f>
-        <v>0</v>
+        <f t="shared" ref="F3:F12" si="0">ROUNDUP((SUM(C3:E3) - MIN(C3:E3))/2,0) + G3</f>
+        <v>8</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -3096,11 +3124,13 @@
       <c r="C4" s="12">
         <v>19</v>
       </c>
-      <c r="D4" s="12"/>
+      <c r="D4" s="12">
+        <v>17</v>
+      </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -3116,11 +3146,13 @@
       <c r="C5" s="12">
         <v>17</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12">
+        <v>18</v>
+      </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
@@ -3136,11 +3168,13 @@
       <c r="C6" s="12">
         <v>19</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12">
+        <v>16</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -3156,9 +3190,14 @@
       <c r="C7" s="12">
         <v>14</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12">
+        <v>14</v>
+      </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="F7" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="G7" s="35"/>
     </row>
     <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -3171,9 +3210,14 @@
       <c r="C8" s="12">
         <v>15</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="12">
+        <v>18</v>
+      </c>
       <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="F8" s="12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="G8" s="35"/>
     </row>
     <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -3186,9 +3230,16 @@
       <c r="C9" s="12">
         <v>0</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="D9" s="12">
+        <v>16</v>
+      </c>
+      <c r="E9" s="12">
+        <v>0</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="G9" s="35"/>
     </row>
     <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -3201,9 +3252,14 @@
       <c r="C10" s="12">
         <v>14</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="12">
+        <v>15</v>
+      </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
+      <c r="F10" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -3216,9 +3272,14 @@
       <c r="C11" s="12">
         <v>13</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="12">
+        <v>15</v>
+      </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="12">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -3231,11 +3292,13 @@
       <c r="C12" s="12">
         <v>18</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="12">
+        <v>17</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -3250,7 +3313,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
       <c r="F13" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F13:F18" si="1">ROUNDUP((SUM(C13:E13) - MIN(C13:E13))/2,0) + G13</f>
         <v>0</v>
       </c>
       <c r="G13" s="2">
@@ -3266,7 +3329,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
       <c r="F14" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14" s="2">
@@ -3277,13 +3340,21 @@
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+      <c r="B15" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>13</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
       <c r="F15" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="F15" si="2">ROUNDUP((SUM(C15:E15) - MIN(C15:E15))/2,0) + G15</f>
+        <v>7</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -3298,7 +3369,7 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="2">
@@ -3314,7 +3385,7 @@
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17" s="2">
@@ -3330,7 +3401,7 @@
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="2">

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="72">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -1830,11 +1830,11 @@
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,7 +2029,9 @@
       <c r="L6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="6"/>
+      <c r="M6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
@@ -2037,7 +2039,7 @@
       <c r="R6" s="6"/>
       <c r="S6" s="2">
         <f>ROUNDUP( 20  - COUNTIF(C6:R6,"") - COUNTIF(D6:R6,"F") - COUNTIF(D6:R6,"T")/2,0)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2077,7 +2079,9 @@
       <c r="L7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="6"/>
+      <c r="M7" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -2085,7 +2089,7 @@
       <c r="R7" s="6"/>
       <c r="S7" s="2">
         <f t="shared" ref="S7:S19" si="0">ROUNDUP( 20  - COUNTIF(C7:R7,"") - COUNTIF(D7:R7,"F") - COUNTIF(D7:R7,"T")/2,0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2125,7 +2129,9 @@
       <c r="L8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
@@ -2133,7 +2139,7 @@
       <c r="R8" s="6"/>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2173,7 +2179,9 @@
       <c r="L9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
@@ -2181,7 +2189,7 @@
       <c r="R9" s="6"/>
       <c r="S9" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2221,7 +2229,9 @@
       <c r="L10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="6"/>
+      <c r="M10" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
@@ -2229,7 +2239,7 @@
       <c r="R10" s="6"/>
       <c r="S10" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2269,7 +2279,9 @@
       <c r="L11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
@@ -2277,7 +2289,7 @@
       <c r="R11" s="6"/>
       <c r="S11" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2317,7 +2329,9 @@
       <c r="L12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M12" s="6"/>
+      <c r="M12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
@@ -2325,7 +2339,7 @@
       <c r="R12" s="6"/>
       <c r="S12" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2365,7 +2379,9 @@
       <c r="L13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
@@ -2373,7 +2389,7 @@
       <c r="R13" s="6"/>
       <c r="S13" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2413,7 +2429,9 @@
       <c r="L14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -2421,7 +2439,7 @@
       <c r="R14" s="6"/>
       <c r="S14" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2461,7 +2479,9 @@
       <c r="L15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -2509,7 +2529,9 @@
       <c r="L16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="6"/>
+      <c r="M16" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
@@ -2541,10 +2563,7 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="S17" s="2"/>
     </row>
     <row r="18" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
@@ -2567,10 +2586,7 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
-      <c r="S18" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="S18" s="2"/>
     </row>
     <row r="19" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
@@ -2609,7 +2625,9 @@
       <c r="L19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="M19" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -2666,7 +2684,7 @@
       </c>
       <c r="M20" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N20" s="40">
         <f t="shared" si="1"/>
@@ -2735,7 +2753,7 @@
       </c>
       <c r="M21" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N21" s="40">
         <f t="shared" si="2"/>
@@ -2804,7 +2822,7 @@
       </c>
       <c r="M22" s="40">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N22" s="40">
         <f t="shared" si="3"/>
@@ -3033,7 +3051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
-    <sheet name="ASISTENCIA" sheetId="1" r:id="rId2"/>
-    <sheet name="EXPERIENCIA" sheetId="3" r:id="rId3"/>
-    <sheet name="PARTICIPACION" sheetId="4" r:id="rId4"/>
-    <sheet name="INVESTIGACION" sheetId="5" r:id="rId5"/>
-    <sheet name="ESTUDIANTES" sheetId="7" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="8" r:id="rId2"/>
+    <sheet name="ASISTENCIA" sheetId="1" r:id="rId3"/>
+    <sheet name="EXPERIENCIA" sheetId="3" r:id="rId4"/>
+    <sheet name="PARTICIPACION" sheetId="4" r:id="rId5"/>
+    <sheet name="INVESTIGACION" sheetId="5" r:id="rId6"/>
+    <sheet name="PRACT2" sheetId="9" r:id="rId7"/>
+    <sheet name="ESTUDIANTES" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">ASISTENCIA!$A$1:$R$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">ASISTENCIA!$A$1:$R$19</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="79">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -239,6 +241,27 @@
   </si>
   <si>
     <t>Suarez Infante, Rocio</t>
+  </si>
+  <si>
+    <t>MODEL</t>
+  </si>
+  <si>
+    <t>SERVICE</t>
+  </si>
+  <si>
+    <t>PRUEBA</t>
+  </si>
+  <si>
+    <t>VIEW</t>
+  </si>
+  <si>
+    <t>CTRL</t>
+  </si>
+  <si>
+    <t>FUNC.</t>
+  </si>
+  <si>
+    <t>PC2</t>
   </si>
 </sst>
 </file>
@@ -379,7 +402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -482,6 +505,12 @@
     </xf>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1381,7 +1410,7 @@
     <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,6 +1854,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1834,15 +1875,15 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M19" sqref="M19"/>
+      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="11" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="18" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="13" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="14" max="18" width="9.7109375" style="3" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1877,6 +1918,9 @@
         <v>36</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>64</v>
       </c>
       <c r="Q3" s="3" t="s">
@@ -2032,7 +2076,9 @@
       <c r="M6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="6"/>
+      <c r="N6" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
@@ -2082,14 +2128,16 @@
       <c r="M7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="2">
         <f t="shared" ref="S7:S19" si="0">ROUNDUP( 20  - COUNTIF(C7:R7,"") - COUNTIF(D7:R7,"F") - COUNTIF(D7:R7,"T")/2,0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2132,7 +2180,9 @@
       <c r="M8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N8" s="6"/>
+      <c r="N8" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -2182,14 +2232,16 @@
       <c r="M9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N9" s="6"/>
+      <c r="N9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2232,7 +2284,9 @@
       <c r="M10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="6"/>
+      <c r="N10" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
@@ -2282,14 +2336,16 @@
       <c r="M11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N11" s="6"/>
+      <c r="N11" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2332,14 +2388,16 @@
       <c r="M12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N12" s="6"/>
+      <c r="N12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2382,14 +2440,16 @@
       <c r="M13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N13" s="6"/>
+      <c r="N13" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2432,14 +2492,16 @@
       <c r="M14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="N14" s="6"/>
+      <c r="N14" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2482,14 +2544,16 @@
       <c r="M15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="6"/>
+      <c r="N15" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2532,7 +2596,9 @@
       <c r="M16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="N16" s="6"/>
+      <c r="N16" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -2628,14 +2694,16 @@
       <c r="M19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N19" s="6"/>
+      <c r="N19" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -2688,7 +2756,7 @@
       </c>
       <c r="N20" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O20" s="40">
         <f t="shared" si="1"/>
@@ -2757,7 +2825,7 @@
       </c>
       <c r="N21" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O21" s="40">
         <f t="shared" si="2"/>
@@ -2826,7 +2894,7 @@
       </c>
       <c r="N22" s="40">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="O22" s="40">
         <f t="shared" si="3"/>
@@ -2855,7 +2923,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -3047,7 +3115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -3432,7 +3500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
@@ -3807,7 +3875,324 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="12" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1">
+        <f>SUM(C1:H1)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="11">
+        <f>SUM(C3:H3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11">
+        <f t="shared" ref="I4:I14" si="0">SUM(C4:H4)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>15</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="11">
+        <f t="shared" ref="I4:I15" si="1">C15*0.2+D15*0.4+E15*0.05+F15*0.05+G15*0.1+H15*0.2</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="INVESTIGACION" sheetId="5" r:id="rId6"/>
     <sheet name="PRACT2" sheetId="9" r:id="rId7"/>
     <sheet name="ESTUDIANTES" sheetId="7" r:id="rId8"/>
+    <sheet name="Exposición" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">ASISTENCIA!$A$1:$R$19</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="94">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -262,6 +263,51 @@
   </si>
   <si>
     <t>PC2</t>
+  </si>
+  <si>
+    <t>HORA</t>
+  </si>
+  <si>
+    <t>TEMA</t>
+  </si>
+  <si>
+    <t>Pruebas Unitarias</t>
+  </si>
+  <si>
+    <t>Cuesta y Amado</t>
+  </si>
+  <si>
+    <t>Alomía y Benites</t>
+  </si>
+  <si>
+    <t>Patrón DI</t>
+  </si>
+  <si>
+    <t>Wong y Guerrero</t>
+  </si>
+  <si>
+    <t>Manejo de documentos XML</t>
+  </si>
+  <si>
+    <t>Ramos y Suares</t>
+  </si>
+  <si>
+    <t>Hilos</t>
+  </si>
+  <si>
+    <t>Peñarando y Flores</t>
+  </si>
+  <si>
+    <t>Manejo de Archivos Excel</t>
+  </si>
+  <si>
+    <t>Becerra y Zavala</t>
+  </si>
+  <si>
+    <t>API JSON de Java</t>
+  </si>
+  <si>
+    <t>ESTUDIANTES</t>
   </si>
 </sst>
 </file>
@@ -402,7 +448,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -511,6 +557,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1407,10 +1459,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1519,12 +1571,14 @@
       <c r="F4" s="2">
         <v>19</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>18</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="11">
         <f t="shared" si="0"/>
-        <v>0.95000000000000007</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1701,12 +1755,14 @@
       <c r="F12" s="2">
         <v>19</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="2">
+        <v>18</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="11">
         <f t="shared" si="0"/>
-        <v>0.95000000000000007</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1830,9 +1886,9 @@
         <f t="shared" si="1"/>
         <v>9.6666666666666661</v>
       </c>
-      <c r="G19" s="15" t="e">
+      <c r="G19" s="15">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>18</v>
       </c>
       <c r="H19" s="15" t="e">
         <f t="shared" si="1"/>
@@ -1844,7 +1900,7 @@
       </c>
       <c r="J19" s="15">
         <f t="shared" si="1"/>
-        <v>0.3411764705882353</v>
+        <v>0.44705882352941173</v>
       </c>
     </row>
   </sheetData>
@@ -1871,19 +1927,19 @@
   </sheetPr>
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="13" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="14" max="18" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="14" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="15" max="18" width="9.7109375" style="3" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2079,13 +2135,15 @@
       <c r="N6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O6" s="6"/>
+      <c r="O6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="2">
         <f>ROUNDUP( 20  - COUNTIF(C6:R6,"") - COUNTIF(D6:R6,"F") - COUNTIF(D6:R6,"T")/2,0)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2131,7 +2189,9 @@
       <c r="N7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O7" s="6"/>
+      <c r="O7" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
@@ -2183,13 +2243,15 @@
       <c r="N8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="6"/>
+      <c r="O8" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2235,13 +2297,15 @@
       <c r="N9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O9" s="6"/>
+      <c r="O9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2287,13 +2351,15 @@
       <c r="N10" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="6"/>
+      <c r="O10" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2339,7 +2405,9 @@
       <c r="N11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O11" s="6"/>
+      <c r="O11" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
@@ -2391,13 +2459,15 @@
       <c r="N12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="6"/>
+      <c r="O12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2443,13 +2513,15 @@
       <c r="N13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O13" s="6"/>
+      <c r="O13" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2495,13 +2567,15 @@
       <c r="N14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O14" s="6"/>
+      <c r="O14" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2547,13 +2621,15 @@
       <c r="N15" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="6"/>
+      <c r="O15" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2599,13 +2675,15 @@
       <c r="N16" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O16" s="6"/>
+      <c r="O16" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2697,13 +2775,15 @@
       <c r="N19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="6"/>
+      <c r="O19" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
@@ -2760,7 +2840,7 @@
       </c>
       <c r="O20" s="40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="P20" s="40">
         <f t="shared" si="1"/>
@@ -2829,7 +2909,7 @@
       </c>
       <c r="O21" s="40">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P21" s="40">
         <f t="shared" si="2"/>
@@ -2898,7 +2978,7 @@
       </c>
       <c r="O22" s="40">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P22" s="40">
         <f t="shared" si="3"/>
@@ -4183,7 +4263,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="11">
-        <f t="shared" ref="I4:I15" si="1">C15*0.2+D15*0.4+E15*0.05+F15*0.05+G15*0.1+H15*0.2</f>
+        <f t="shared" ref="I15" si="1">C15*0.2+D15*0.4+E15*0.05+F15*0.05+G15*0.1+H15*0.2</f>
         <v>0</v>
       </c>
     </row>
@@ -4295,4 +4375,124 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="45">
+        <v>0.2986111111111111</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="45">
+        <v>0.31944444444444448</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="45">
+        <v>0.34027777777777801</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="45">
+        <v>0.36111111111111099</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="45">
+        <v>0.38194444444444497</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="45">
+        <v>0.40277777777777801</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,21 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7032" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
-    <sheet name="Hoja1" sheetId="8" r:id="rId2"/>
-    <sheet name="ASISTENCIA" sheetId="1" r:id="rId3"/>
-    <sheet name="EXPERIENCIA" sheetId="3" r:id="rId4"/>
-    <sheet name="PARTICIPACION" sheetId="4" r:id="rId5"/>
-    <sheet name="INVESTIGACION" sheetId="5" r:id="rId6"/>
-    <sheet name="PRACT2" sheetId="9" r:id="rId7"/>
-    <sheet name="ESTUDIANTES" sheetId="7" r:id="rId8"/>
-    <sheet name="Exposición" sheetId="10" r:id="rId9"/>
+    <sheet name="ASISTENCIA" sheetId="1" r:id="rId2"/>
+    <sheet name="EXPERIENCIA" sheetId="3" r:id="rId3"/>
+    <sheet name="PARTICIPACION" sheetId="4" r:id="rId4"/>
+    <sheet name="INVESTIGACION" sheetId="5" r:id="rId5"/>
+    <sheet name="PRACT2" sheetId="9" r:id="rId6"/>
+    <sheet name="ESTUDIANTES" sheetId="7" r:id="rId7"/>
+    <sheet name="Exposición" sheetId="10" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">ASISTENCIA!$A$1:$R$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">ASISTENCIA!$A$1:$R$17</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="94">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -97,9 +96,6 @@
     <t>PRE</t>
   </si>
   <si>
-    <t>FINAL</t>
-  </si>
-  <si>
     <t>TRAB-INV</t>
   </si>
   <si>
@@ -308,6 +304,9 @@
   </si>
   <si>
     <t>ESTUDIANTES</t>
+  </si>
+  <si>
+    <t>EX-FINAL</t>
   </si>
 </sst>
 </file>
@@ -448,7 +447,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -524,9 +523,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1457,28 +1453,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1501,16 +1497,16 @@
         <v>26</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1518,45 +1514,71 @@
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>11</v>
+      </c>
+      <c r="F2" s="11">
+        <f>PRACT2!I3</f>
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <f>PARTICIPACION!F2</f>
+        <v>17</v>
+      </c>
+      <c r="H2" s="2">
+        <f>ASISTENCIA!S6</f>
+        <v>16</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <f>D2*0.4+E2*0.05+F2*0.05+G2*0.1+H2*0.2+I2*0.2</f>
+        <v>6.0500000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="11">
-        <f>D2*0.2+E2*0.4+F2*0.05+G2*0.05+H2*0.1+I2*0.2</f>
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2">
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
         <v>8</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="F3" s="11">
+        <f>PRACT2!I4</f>
+        <v>12</v>
+      </c>
+      <c r="G3" s="2">
+        <f>PARTICIPACION!F3</f>
+        <v>15</v>
+      </c>
+      <c r="H3" s="2">
+        <f>ASISTENCIA!S7</f>
+        <v>14</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0</v>
+      </c>
       <c r="J3" s="11">
-        <f t="shared" ref="J3:J18" si="0">D3*0.2+E3*0.4+F3*0.05+G3*0.05+H3*0.1+I3*0.2</f>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J3:J13" si="0">D3*0.4+E3*0.05+F3*0.05+G3*0.1+H3*0.2+I3*0.2</f>
+        <v>5.3000000000000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1564,24 +1586,35 @@
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
+        <v>41</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
         <v>19</v>
       </c>
+      <c r="F4" s="11">
+        <f>PRACT2!I5</f>
+        <v>18</v>
+      </c>
       <c r="G4" s="2">
+        <f>PARTICIPACION!F4</f>
         <v>18</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="H4" s="2">
+        <f>ASISTENCIA!S8</f>
+        <v>12</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0</v>
+      </c>
       <c r="J4" s="11">
         <f t="shared" si="0"/>
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6.0500000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1589,22 +1622,35 @@
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
         <v>11</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="F5" s="11">
+        <f>PRACT2!I6</f>
+        <v>12</v>
+      </c>
+      <c r="G5" s="2">
+        <f>PARTICIPACION!F5</f>
+        <v>18</v>
+      </c>
+      <c r="H5" s="2">
+        <f>ASISTENCIA!S9</f>
+        <v>16</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
       <c r="J5" s="11">
         <f t="shared" si="0"/>
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1612,43 +1658,69 @@
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
         <v>8</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="F6" s="11">
+        <f>PRACT2!I7</f>
+        <v>12</v>
+      </c>
+      <c r="G6" s="2">
+        <f>PARTICIPACION!F6</f>
+        <v>18</v>
+      </c>
+      <c r="H6" s="2">
+        <f>ASISTENCIA!S10</f>
+        <v>14</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
       <c r="J6" s="11">
         <f t="shared" si="0"/>
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="F7" s="11">
+        <f>PRACT2!I8</f>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <f>PARTICIPACION!F7</f>
+        <v>14</v>
+      </c>
+      <c r="H7" s="2">
+        <f>ASISTENCIA!S11</f>
+        <v>13</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
       <c r="J7" s="11">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1656,22 +1728,35 @@
         <v>7</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2">
+        <v>43</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
         <v>10</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="F8" s="11">
+        <f>PRACT2!I9</f>
+        <v>19</v>
+      </c>
+      <c r="G8" s="2">
+        <f>PARTICIPACION!F8</f>
+        <v>17</v>
+      </c>
+      <c r="H8" s="2">
+        <f>ASISTENCIA!S12</f>
+        <v>17</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
       <c r="J8" s="11">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>6.5500000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1679,22 +1764,35 @@
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <f>PRACT2!I10</f>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <f>PARTICIPACION!F9</f>
+        <v>8</v>
+      </c>
+      <c r="H9" s="2">
+        <f>ASISTENCIA!S13</f>
+        <v>15</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
       <c r="J9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1702,22 +1800,35 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
+        <v>44</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
         <v>10</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="F10" s="11">
+        <f>PRACT2!I11</f>
+        <v>8</v>
+      </c>
+      <c r="G10" s="2">
+        <f>PARTICIPACION!F10</f>
+        <v>15</v>
+      </c>
+      <c r="H10" s="2">
+        <f>ASISTENCIA!S14</f>
+        <v>14</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
       <c r="J10" s="11">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1725,22 +1836,35 @@
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2">
+        <v>45</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
         <v>10</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="F11" s="11">
+        <f>PRACT2!I12</f>
+        <v>19</v>
+      </c>
+      <c r="G11" s="2">
+        <f>PARTICIPACION!F11</f>
+        <v>14</v>
+      </c>
+      <c r="H11" s="2">
+        <f>ASISTENCIA!S15</f>
+        <v>14</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
       <c r="J11" s="11">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1748,159 +1872,96 @@
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
+        <v>46</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
         <v>19</v>
       </c>
+      <c r="F12" s="11">
+        <f>PRACT2!I13</f>
+        <v>18</v>
+      </c>
       <c r="G12" s="2">
+        <f>PARTICIPACION!F12</f>
         <v>18</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="H12" s="2">
+        <f>ASISTENCIA!S16</f>
+        <v>11</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
       <c r="J12" s="11">
         <f t="shared" si="0"/>
-        <v>1.85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>5.8500000000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="C13" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="11">
+        <f>PRACT2!I14</f>
+        <v>8</v>
+      </c>
+      <c r="G13" s="2">
+        <f>PARTICIPACION!F13</f>
+        <v>7</v>
+      </c>
+      <c r="H13" s="2">
+        <f>ASISTENCIA!S17</f>
+        <v>11</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
       <c r="J13" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6">
-        <v>13</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6">
-        <v>14</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6">
-        <v>15</v>
-      </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6">
-        <v>16</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>11</v>
-      </c>
-      <c r="B18" s="6">
-        <v>17</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D19" s="15" t="e">
-        <f t="shared" ref="D19:J19" si="1">AVERAGE(D2:D18)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E19" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F19" s="15">
-        <f t="shared" si="1"/>
+        <v>3.3000000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D14" s="15">
+        <f>AVERAGE(D2:D13)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <f>AVERAGE(E2:E13)</f>
         <v>9.6666666666666661</v>
       </c>
-      <c r="G19" s="15">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="H19" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I19" s="15" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="15">
-        <f t="shared" si="1"/>
-        <v>0.44705882352941173</v>
+      <c r="F14" s="15">
+        <f>AVERAGE(F2:F13)</f>
+        <v>13.166666666666666</v>
+      </c>
+      <c r="G14" s="15">
+        <f>AVERAGE(G2:G13)</f>
+        <v>14.916666666666666</v>
+      </c>
+      <c r="H14" s="15">
+        <f>AVERAGE(H2:H13)</f>
+        <v>13.916666666666666</v>
+      </c>
+      <c r="I14" s="15">
+        <f>AVERAGE(I2:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="15">
+        <f>AVERAGE(J2:J13)</f>
+        <v>5.416666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -1910,80 +1971,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="14" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="15" max="18" width="9.7109375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="3" max="15" width="9.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="9.6640625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="41"/>
+      <c r="D1" s="40"/>
       <c r="E1" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -2033,71 +2082,71 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="L5" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="37" t="s">
+      <c r="N5" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="O5" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="P5" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="Q5" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="Q5" s="37" t="s">
+      <c r="R5" s="36" t="s">
         <v>62</v>
-      </c>
-      <c r="R5" s="37" t="s">
-        <v>63</v>
       </c>
       <c r="S5" s="22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>1</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>21</v>
@@ -2133,7 +2182,7 @@
         <v>21</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O6" s="6" t="s">
         <v>21</v>
@@ -2146,18 +2195,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>21</v>
@@ -2169,19 +2218,19 @@
         <v>21</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M7" s="6" t="s">
         <v>21</v>
@@ -2190,61 +2239,61 @@
         <v>21</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="2">
-        <f t="shared" ref="S7:S19" si="0">ROUNDUP( 20  - COUNTIF(C7:R7,"") - COUNTIF(D7:R7,"F") - COUNTIF(D7:R7,"T")/2,0)</f>
+        <f t="shared" ref="S7:S17" si="0">ROUNDUP( 20  - COUNTIF(C7:R7,"") - COUNTIF(D7:R7,"F") - COUNTIF(D7:R7,"T")/2,0)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>3</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
@@ -2254,18 +2303,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>4</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>21</v>
@@ -2277,7 +2326,7 @@
         <v>21</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>21</v>
@@ -2308,21 +2357,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>5</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>21</v>
@@ -2331,25 +2380,25 @@
         <v>21</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>21</v>
@@ -2362,39 +2411,39 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>6</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>21</v>
@@ -2406,7 +2455,7 @@
         <v>21</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
@@ -2416,12 +2465,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>21</v>
@@ -2470,12 +2519,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>21</v>
@@ -2484,16 +2533,16 @@
         <v>21</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>21</v>
@@ -2524,24 +2573,24 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>9</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>21</v>
@@ -2556,16 +2605,16 @@
         <v>21</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>21</v>
@@ -2578,18 +2627,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>10</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>21</v>
@@ -2607,19 +2656,19 @@
         <v>21</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>21</v>
@@ -2632,51 +2681,51 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>11</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
@@ -2686,311 +2735,265 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
+      <c r="B17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
-      <c r="S17" s="2"/>
-    </row>
-    <row r="18" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>13</v>
-      </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="2"/>
-    </row>
-    <row r="19" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>14</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="2">
+      <c r="S17" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="B18" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="38">
+        <f>COUNTIF(C6:C17,"=P")</f>
+        <v>11</v>
+      </c>
+      <c r="D18" s="39">
+        <f>COUNTIF(D6:D17,"=P")</f>
+        <v>4</v>
+      </c>
+      <c r="E18" s="39">
+        <f>COUNTIF(E6:E17,"=P")</f>
+        <v>6</v>
+      </c>
+      <c r="F18" s="39">
+        <f>COUNTIF(F6:F17,"=P")</f>
+        <v>9</v>
+      </c>
+      <c r="G18" s="39">
+        <f>COUNTIF(G6:G17,"=P")</f>
+        <v>7</v>
+      </c>
+      <c r="H18" s="39">
+        <f>COUNTIF(H6:H17,"=P")</f>
+        <v>5</v>
+      </c>
+      <c r="I18" s="39">
+        <f>COUNTIF(I6:I17,"=P")</f>
+        <v>7</v>
+      </c>
+      <c r="J18" s="39">
+        <f>COUNTIF(J6:J17,"=P")</f>
+        <v>6</v>
+      </c>
+      <c r="K18" s="39">
+        <f>COUNTIF(K6:K17,"=P")</f>
+        <v>7</v>
+      </c>
+      <c r="L18" s="39">
+        <f>COUNTIF(L6:L17,"=P")</f>
+        <v>7</v>
+      </c>
+      <c r="M18" s="39">
+        <f>COUNTIF(M6:M17,"=P")</f>
+        <v>8</v>
+      </c>
+      <c r="N18" s="39">
+        <f>COUNTIF(N6:N17,"=P")</f>
+        <v>6</v>
+      </c>
+      <c r="O18" s="39">
+        <f>COUNTIF(O6:O17,"=P")</f>
+        <v>8</v>
+      </c>
+      <c r="P18" s="39">
+        <f>COUNTIF(P6:P17,"=P")</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="39">
+        <f>COUNTIF(Q6:Q17,"=P")</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="39">
+        <f>COUNTIF(R6:R17,"=P")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+      <c r="B19" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="38">
+        <f>COUNTIF(C6:C17,"=T")</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="39">
+        <f>COUNTIF(D6:D17,"=T")</f>
+        <v>4</v>
+      </c>
+      <c r="E19" s="39">
+        <f>COUNTIF(E6:E17,"=T")</f>
+        <v>4</v>
+      </c>
+      <c r="F19" s="39">
+        <f>COUNTIF(F6:F17,"=T")</f>
+        <v>2</v>
+      </c>
+      <c r="G19" s="39">
+        <f>COUNTIF(G6:G17,"=T")</f>
+        <v>3</v>
+      </c>
+      <c r="H19" s="39">
+        <f>COUNTIF(H6:H17,"=T")</f>
+        <v>5</v>
+      </c>
+      <c r="I19" s="39">
+        <f>COUNTIF(I6:I17,"=T")</f>
+        <v>5</v>
+      </c>
+      <c r="J19" s="39">
+        <f>COUNTIF(J6:J17,"=T")</f>
+        <v>6</v>
+      </c>
+      <c r="K19" s="39">
+        <f>COUNTIF(K6:K17,"=T")</f>
+        <v>5</v>
+      </c>
+      <c r="L19" s="39">
+        <f>COUNTIF(L6:L17,"=T")</f>
+        <v>5</v>
+      </c>
+      <c r="M19" s="39">
+        <f>COUNTIF(M6:M17,"=T")</f>
+        <v>2</v>
+      </c>
+      <c r="N19" s="39">
+        <f>COUNTIF(N6:N17,"=T")</f>
+        <v>4</v>
+      </c>
+      <c r="O19" s="39">
+        <f>COUNTIF(O6:O17,"=T")</f>
+        <v>4</v>
+      </c>
+      <c r="P19" s="39">
+        <f>COUNTIF(P6:P17,"=T")</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="39">
+        <f>COUNTIF(Q6:Q17,"=T")</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="39">
+        <f>COUNTIF(R6:R17,"=T")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="39">
-        <f t="shared" ref="C20:R20" si="1">COUNTIF(C6:C19,"=P")</f>
-        <v>11</v>
-      </c>
-      <c r="D20" s="40">
-        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="C20" s="38">
+        <f>COUNTIF(C6:C17,"=F") + COUNTIF(C6:C17,"=")</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="39">
+        <f>COUNTIF(D6:D17,"=F") + COUNTIF(D6:D17,"=")</f>
         <v>4</v>
       </c>
-      <c r="E20" s="40">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="F20" s="40">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="G20" s="40">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H20" s="40">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I20" s="40">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="J20" s="40">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="K20" s="40">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="L20" s="40">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="M20" s="40">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="N20" s="40">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="O20" s="40">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="P20" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="40">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B21" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="39">
-        <f t="shared" ref="C21:R21" si="2">COUNTIF(C6:C19,"=T")</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="40">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="E21" s="40">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="F21" s="40">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G21" s="40">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H21" s="40">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="I21" s="40">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="J21" s="40">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="K21" s="40">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="L21" s="40">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="M21" s="40">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="N21" s="40">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="O21" s="40">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="P21" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="40">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="39">
-        <f t="shared" ref="C22:R22" si="3">COUNTIF(C6:C19,"=F") + COUNTIF(C6:C19,"=")</f>
-        <v>3</v>
-      </c>
-      <c r="D22" s="40">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="E22" s="40">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="F22" s="40">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="G22" s="40">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="H22" s="40">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="I22" s="40">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="J22" s="40">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="K22" s="40">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="L22" s="40">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="M22" s="40">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="N22" s="40">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="O22" s="40">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="P22" s="40">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="Q22" s="40">
-        <f t="shared" si="3"/>
-        <v>14</v>
-      </c>
-      <c r="R22" s="40">
-        <f t="shared" si="3"/>
-        <v>14</v>
+      <c r="E20" s="39">
+        <f>COUNTIF(E6:E17,"=F") + COUNTIF(E6:E17,"=")</f>
+        <v>2</v>
+      </c>
+      <c r="F20" s="39">
+        <f>COUNTIF(F6:F17,"=F") + COUNTIF(F6:F17,"=")</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="39">
+        <f>COUNTIF(G6:G17,"=F") + COUNTIF(G6:G17,"=")</f>
+        <v>2</v>
+      </c>
+      <c r="H20" s="39">
+        <f>COUNTIF(H6:H17,"=F") + COUNTIF(H6:H17,"=")</f>
+        <v>2</v>
+      </c>
+      <c r="I20" s="39">
+        <f>COUNTIF(I6:I17,"=F") + COUNTIF(I6:I17,"=")</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="39">
+        <f>COUNTIF(J6:J17,"=F") + COUNTIF(J6:J17,"=")</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="39">
+        <f>COUNTIF(K6:K17,"=F") + COUNTIF(K6:K17,"=")</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="39">
+        <f>COUNTIF(L6:L17,"=F") + COUNTIF(L6:L17,"=")</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="39">
+        <f>COUNTIF(M6:M17,"=F") + COUNTIF(M6:M17,"=")</f>
+        <v>2</v>
+      </c>
+      <c r="N20" s="39">
+        <f>COUNTIF(N6:N17,"=F") + COUNTIF(N6:N17,"=")</f>
+        <v>2</v>
+      </c>
+      <c r="O20" s="39">
+        <f>COUNTIF(O6:O17,"=F") + COUNTIF(O6:O17,"=")</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="39">
+        <f>COUNTIF(P6:P17,"=F") + COUNTIF(P6:P17,"=")</f>
+        <v>12</v>
+      </c>
+      <c r="Q20" s="39">
+        <f>COUNTIF(Q6:Q17,"=F") + COUNTIF(Q6:Q17,"=")</f>
+        <v>12</v>
+      </c>
+      <c r="R20" s="39">
+        <f>COUNTIF(R6:R17,"=F") + COUNTIF(R6:R17,"=")</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3003,21 +3006,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
@@ -3031,163 +3034,115 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="25"/>
-    </row>
-    <row r="14" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="25"/>
-    </row>
-    <row r="15" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="25"/>
-    </row>
-    <row r="16" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>15</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="25"/>
-    </row>
-    <row r="17" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>16</v>
-      </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="25"/>
-    </row>
-    <row r="18" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>17</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3195,25 +3150,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
-    <col min="5" max="6" width="11.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="3"/>
+    <col min="5" max="6" width="11.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>14</v>
       </c>
@@ -3233,15 +3188,15 @@
         <v>9</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" s="12">
         <v>16</v>
@@ -3249,21 +3204,23 @@
       <c r="D2" s="12">
         <v>18</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="12">
+        <v>0</v>
+      </c>
       <c r="F2" s="12">
         <f>ROUNDUP((SUM(C2:E2) - MIN(C2:E2))/2,0) + G2</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="12">
         <v>14</v>
@@ -3271,21 +3228,23 @@
       <c r="D3" s="12">
         <v>15</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
       <c r="F3" s="12">
-        <f t="shared" ref="F3:F12" si="0">ROUNDUP((SUM(C3:E3) - MIN(C3:E3))/2,0) + G3</f>
-        <v>8</v>
+        <f t="shared" ref="F3:F13" si="0">ROUNDUP((SUM(C3:E3) - MIN(C3:E3))/2,0) + G3</f>
+        <v>15</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="12">
         <v>19</v>
@@ -3293,21 +3252,23 @@
       <c r="D4" s="12">
         <v>17</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="12">
+        <v>0</v>
+      </c>
       <c r="F4" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" s="12">
         <v>17</v>
@@ -3315,21 +3276,23 @@
       <c r="D5" s="12">
         <v>18</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
       <c r="F5" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="12">
         <v>19</v>
@@ -3337,21 +3300,23 @@
       <c r="D6" s="12">
         <v>16</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
       <c r="F6" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="12">
         <v>14</v>
@@ -3359,19 +3324,21 @@
       <c r="D7" s="12">
         <v>14</v>
       </c>
-      <c r="E7" s="12"/>
+      <c r="E7" s="12">
+        <v>0</v>
+      </c>
       <c r="F7" s="12">
         <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G7" s="35"/>
-    </row>
-    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G7" s="34"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="12">
         <v>15</v>
@@ -3379,19 +3346,21 @@
       <c r="D8" s="12">
         <v>18</v>
       </c>
-      <c r="E8" s="12"/>
+      <c r="E8" s="12">
+        <v>0</v>
+      </c>
       <c r="F8" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="G8" s="35"/>
-    </row>
-    <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="12">
         <v>0</v>
@@ -3406,14 +3375,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G9" s="35"/>
-    </row>
-    <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="12">
         <v>14</v>
@@ -3421,19 +3390,21 @@
       <c r="D10" s="12">
         <v>15</v>
       </c>
-      <c r="E10" s="12"/>
+      <c r="E10" s="12">
+        <v>0</v>
+      </c>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="12">
         <v>13</v>
@@ -3441,19 +3412,21 @@
       <c r="D11" s="12">
         <v>15</v>
       </c>
-      <c r="E11" s="12"/>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
       <c r="F11" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="G11" s="35"/>
-    </row>
-    <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G11" s="34"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12" s="12">
         <v>18</v>
@@ -3461,116 +3434,38 @@
       <c r="D12" s="12">
         <v>17</v>
       </c>
-      <c r="E12" s="12"/>
+      <c r="E12" s="12">
+        <v>0</v>
+      </c>
       <c r="F12" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+      <c r="B13" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
+        <v>13</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
       <c r="F13" s="12">
-        <f t="shared" ref="F13:F18" si="1">ROUNDUP((SUM(C13:E13) - MIN(C13:E13))/2,0) + G13</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0</v>
-      </c>
-      <c r="D15" s="10">
-        <v>13</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" ref="F15" si="2">ROUNDUP((SUM(C15:E15) - MIN(C15:E15))/2,0) + G15</f>
-        <v>7</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12">
-        <v>15</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
-        <v>16</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
-        <v>17</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3580,25 +3475,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
@@ -3624,7 +3519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3647,12 +3542,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="34"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="12">
         <v>0</v>
       </c>
@@ -3670,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3693,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3716,7 +3611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3739,7 +3634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3762,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3785,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3808,7 +3703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3831,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3854,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3877,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3889,7 +3784,7 @@
       <c r="G13" s="29"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -3901,7 +3796,7 @@
       <c r="G14" s="31"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -3913,7 +3808,7 @@
       <c r="G15" s="31"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -3925,7 +3820,7 @@
       <c r="G16" s="31"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -3937,7 +3832,7 @@
       <c r="G17" s="31"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -3948,6 +3843,442 @@
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
       <c r="H18" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="43" customWidth="1"/>
+    <col min="3" max="8" width="15.6640625" style="3" customWidth="1"/>
+    <col min="9" max="12" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3">
+        <v>2</v>
+      </c>
+      <c r="H1" s="3">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1">
+        <f>SUM(C1:H1)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>4</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>2</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11">
+        <f>SUM(C3:H3)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="10">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
+        <v>2</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <f t="shared" ref="I4:I14" si="0">SUM(C4:H4)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="10">
+        <v>2</v>
+      </c>
+      <c r="G5" s="10">
+        <v>2</v>
+      </c>
+      <c r="H5" s="10">
+        <v>5</v>
+      </c>
+      <c r="I5" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
+      <c r="D6" s="10">
+        <v>4</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>2</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10">
+        <v>5</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10">
+        <v>5</v>
+      </c>
+      <c r="E8" s="10">
+        <v>2</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2</v>
+      </c>
+      <c r="D9" s="10">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10">
+        <v>2</v>
+      </c>
+      <c r="F9" s="10">
+        <v>2</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="10">
+        <v>4</v>
+      </c>
+      <c r="I9" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="10">
+        <v>2</v>
+      </c>
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10">
+        <v>2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>2</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10">
+        <v>7</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2</v>
+      </c>
+      <c r="F12" s="10">
+        <v>2</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2</v>
+      </c>
+      <c r="H12" s="10">
+        <v>4</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10">
+        <v>5</v>
+      </c>
+      <c r="E13" s="10">
+        <v>2</v>
+      </c>
+      <c r="F13" s="10">
+        <v>2</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2</v>
+      </c>
+      <c r="H13" s="10">
+        <v>5</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10">
+        <v>2</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3957,414 +4288,102 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="8" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="58.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="3">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3">
-        <v>8</v>
-      </c>
-      <c r="E1" s="3">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1">
-        <f>SUM(C1:H1)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="43" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B1" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="11">
-        <f>SUM(C3:H3)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="43" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="10">
-        <v>2</v>
-      </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="11">
-        <f t="shared" ref="I4:I14" si="0">SUM(C4:H4)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="43" t="s">
+      <c r="B4" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="43" t="s">
+      <c r="B5" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="10">
-        <v>2</v>
-      </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="43" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="10">
-        <v>2</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="43" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="44" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>11</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>12</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>15</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="11">
-        <f t="shared" ref="I15" si="1">C15*0.2+D15*0.4+E15*0.05+F15*0.05+G15*0.1+H15*0.2</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="36" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B12" s="35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4377,7 +4396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -4385,110 +4404,110 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="44">
         <v>0.2986111111111111</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="44">
         <v>0.31944444444444448</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="44">
         <v>0.34027777777777801</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="45">
+      <c r="B5" s="44">
         <v>0.36111111111111099</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="44">
         <v>0.38194444444444497</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="44">
         <v>0.40277777777777801</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7032" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="94">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -313,7 +313,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +388,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -447,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,6 +566,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1461,20 +1472,20 @@
       <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1506,7 +1517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1532,17 +1543,17 @@
       </c>
       <c r="H2" s="2">
         <f>ASISTENCIA!S6</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="11">
         <f>D2*0.4+E2*0.05+F2*0.05+G2*0.1+H2*0.2+I2*0.2</f>
-        <v>6.0500000000000007</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6.2500000000000009</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1568,17 +1579,17 @@
       </c>
       <c r="H3" s="2">
         <f>ASISTENCIA!S7</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3" s="11">
         <f t="shared" ref="J3:J13" si="0">D3*0.4+E3*0.05+F3*0.05+G3*0.1+H3*0.2+I3*0.2</f>
-        <v>5.3000000000000007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1614,7 +1625,7 @@
         <v>6.0500000000000007</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1640,17 +1651,17 @@
       </c>
       <c r="H5" s="2">
         <f>ASISTENCIA!S9</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" si="0"/>
-        <v>6.15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6.3500000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1676,17 +1687,17 @@
       </c>
       <c r="H6" s="2">
         <f>ASISTENCIA!S10</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" si="0"/>
-        <v>5.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -1710,17 +1721,17 @@
       </c>
       <c r="H7" s="2">
         <f>ASISTENCIA!S11</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5.2000000000000011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1746,17 +1757,17 @@
       </c>
       <c r="H8" s="2">
         <f>ASISTENCIA!S12</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" s="11">
         <f t="shared" si="0"/>
-        <v>6.5500000000000007</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1782,17 +1793,17 @@
       </c>
       <c r="H9" s="2">
         <f>ASISTENCIA!S13</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="11">
         <f t="shared" si="0"/>
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1828,7 +1839,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1854,17 +1865,17 @@
       </c>
       <c r="H11" s="2">
         <f>ASISTENCIA!S15</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" s="11">
         <f t="shared" si="0"/>
-        <v>5.65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5.8500000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1900,7 +1911,7 @@
         <v>5.8500000000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
@@ -1924,44 +1935,44 @@
       </c>
       <c r="H13" s="2">
         <f>ASISTENCIA!S17</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" s="2">
         <v>0</v>
       </c>
       <c r="J13" s="11">
         <f t="shared" si="0"/>
-        <v>3.3000000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>3.5000000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="15">
-        <f>AVERAGE(D2:D13)</f>
+        <f t="shared" ref="D14:J14" si="1">AVERAGE(D2:D13)</f>
         <v>0</v>
       </c>
       <c r="E14" s="15">
-        <f>AVERAGE(E2:E13)</f>
+        <f t="shared" si="1"/>
         <v>9.6666666666666661</v>
       </c>
       <c r="F14" s="15">
-        <f>AVERAGE(F2:F13)</f>
+        <f t="shared" si="1"/>
         <v>13.166666666666666</v>
       </c>
       <c r="G14" s="15">
-        <f>AVERAGE(G2:G13)</f>
+        <f t="shared" si="1"/>
         <v>14.916666666666666</v>
       </c>
       <c r="H14" s="15">
-        <f>AVERAGE(H2:H13)</f>
-        <v>13.916666666666666</v>
+        <f t="shared" si="1"/>
+        <v>14.666666666666666</v>
       </c>
       <c r="I14" s="15">
-        <f>AVERAGE(I2:I13)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J14" s="15">
-        <f>AVERAGE(J2:J13)</f>
-        <v>5.416666666666667</v>
+        <f t="shared" si="1"/>
+        <v>5.5666666666666673</v>
       </c>
     </row>
   </sheetData>
@@ -1976,23 +1987,23 @@
   </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+      <selection pane="bottomRight" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="3" max="15" width="9.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="16" max="18" width="9.6640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="15" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="9.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>19</v>
       </c>
@@ -2001,12 +2012,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>65</v>
       </c>
@@ -2032,7 +2043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -2082,7 +2093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
@@ -2141,7 +2152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -2187,15 +2198,17 @@
       <c r="O6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P6" s="6"/>
+      <c r="P6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="2">
         <f>ROUNDUP( 20  - COUNTIF(C6:R6,"") - COUNTIF(D6:R6,"F") - COUNTIF(D6:R6,"T")/2,0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -2241,15 +2254,17 @@
       <c r="O7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="6"/>
+      <c r="P7" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="2">
         <f t="shared" ref="S7:S17" si="0">ROUNDUP( 20  - COUNTIF(C7:R7,"") - COUNTIF(D7:R7,"F") - COUNTIF(D7:R7,"T")/2,0)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -2295,7 +2310,9 @@
       <c r="O8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P8" s="6"/>
+      <c r="P8" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="2">
@@ -2303,7 +2320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -2349,15 +2366,17 @@
       <c r="O9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -2403,15 +2422,17 @@
       <c r="O10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="6"/>
+      <c r="P10" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -2457,15 +2478,17 @@
       <c r="O11" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="6"/>
+      <c r="P11" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -2511,15 +2534,17 @@
       <c r="O12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P12" s="6"/>
+      <c r="P12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -2565,15 +2590,17 @@
       <c r="O13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P13" s="6"/>
+      <c r="P13" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -2619,7 +2646,9 @@
       <c r="O14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P14" s="6"/>
+      <c r="P14" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="2">
@@ -2627,7 +2656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -2673,15 +2702,17 @@
       <c r="O15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P15" s="6"/>
+      <c r="P15" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -2727,7 +2758,9 @@
       <c r="O16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P16" s="6"/>
+      <c r="P16" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="2">
@@ -2735,7 +2768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -2781,218 +2814,220 @@
       <c r="O17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P17" s="6"/>
+      <c r="P17" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
         <v>16</v>
       </c>
       <c r="C18" s="38">
-        <f>COUNTIF(C6:C17,"=P")</f>
+        <f t="shared" ref="C18:R18" si="1">COUNTIF(C6:C17,"=P")</f>
         <v>11</v>
       </c>
       <c r="D18" s="39">
-        <f>COUNTIF(D6:D17,"=P")</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="E18" s="39">
-        <f>COUNTIF(E6:E17,"=P")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="F18" s="39">
-        <f>COUNTIF(F6:F17,"=P")</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="G18" s="39">
-        <f>COUNTIF(G6:G17,"=P")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="H18" s="39">
-        <f>COUNTIF(H6:H17,"=P")</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I18" s="39">
-        <f>COUNTIF(I6:I17,"=P")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="J18" s="39">
-        <f>COUNTIF(J6:J17,"=P")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="K18" s="39">
-        <f>COUNTIF(K6:K17,"=P")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="L18" s="39">
-        <f>COUNTIF(L6:L17,"=P")</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="M18" s="39">
-        <f>COUNTIF(M6:M17,"=P")</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="N18" s="39">
-        <f>COUNTIF(N6:N17,"=P")</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O18" s="39">
-        <f>COUNTIF(O6:O17,"=P")</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="P18" s="39">
-        <f>COUNTIF(P6:P17,"=P")</f>
-        <v>0</v>
+      <c r="P18" s="46">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
       <c r="Q18" s="39">
-        <f>COUNTIF(Q6:Q17,"=P")</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R18" s="39">
-        <f>COUNTIF(R6:R17,"=P")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="38">
-        <f>COUNTIF(C6:C17,"=T")</f>
+        <f t="shared" ref="C19:R19" si="2">COUNTIF(C6:C17,"=T")</f>
         <v>0</v>
       </c>
       <c r="D19" s="39">
-        <f>COUNTIF(D6:D17,"=T")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E19" s="39">
-        <f>COUNTIF(E6:E17,"=T")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="F19" s="39">
-        <f>COUNTIF(F6:F17,"=T")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G19" s="39">
-        <f>COUNTIF(G6:G17,"=T")</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H19" s="39">
-        <f>COUNTIF(H6:H17,"=T")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I19" s="39">
-        <f>COUNTIF(I6:I17,"=T")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="J19" s="39">
-        <f>COUNTIF(J6:J17,"=T")</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="K19" s="39">
-        <f>COUNTIF(K6:K17,"=T")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="L19" s="39">
-        <f>COUNTIF(L6:L17,"=T")</f>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="M19" s="39">
-        <f>COUNTIF(M6:M17,"=T")</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="N19" s="39">
-        <f>COUNTIF(N6:N17,"=T")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="O19" s="39">
-        <f>COUNTIF(O6:O17,"=T")</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="P19" s="39">
-        <f>COUNTIF(P6:P17,"=T")</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="Q19" s="39">
-        <f>COUNTIF(Q6:Q17,"=T")</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R19" s="39">
-        <f>COUNTIF(R6:R17,"=T")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="38">
-        <f>COUNTIF(C6:C17,"=F") + COUNTIF(C6:C17,"=")</f>
+        <f t="shared" ref="C20:R20" si="3">COUNTIF(C6:C17,"=F") + COUNTIF(C6:C17,"=")</f>
         <v>1</v>
       </c>
       <c r="D20" s="39">
-        <f>COUNTIF(D6:D17,"=F") + COUNTIF(D6:D17,"=")</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E20" s="39">
-        <f>COUNTIF(E6:E17,"=F") + COUNTIF(E6:E17,"=")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F20" s="39">
-        <f>COUNTIF(F6:F17,"=F") + COUNTIF(F6:F17,"=")</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G20" s="39">
-        <f>COUNTIF(G6:G17,"=F") + COUNTIF(G6:G17,"=")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H20" s="39">
-        <f>COUNTIF(H6:H17,"=F") + COUNTIF(H6:H17,"=")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I20" s="39">
-        <f>COUNTIF(I6:I17,"=F") + COUNTIF(I6:I17,"=")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J20" s="39">
-        <f>COUNTIF(J6:J17,"=F") + COUNTIF(J6:J17,"=")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K20" s="39">
-        <f>COUNTIF(K6:K17,"=F") + COUNTIF(K6:K17,"=")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L20" s="39">
-        <f>COUNTIF(L6:L17,"=F") + COUNTIF(L6:L17,"=")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M20" s="39">
-        <f>COUNTIF(M6:M17,"=F") + COUNTIF(M6:M17,"=")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="N20" s="39">
-        <f>COUNTIF(N6:N17,"=F") + COUNTIF(N6:N17,"=")</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O20" s="39">
-        <f>COUNTIF(O6:O17,"=F") + COUNTIF(O6:O17,"=")</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P20" s="39">
-        <f>COUNTIF(P6:P17,"=F") + COUNTIF(P6:P17,"=")</f>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="39">
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="Q20" s="39">
-        <f>COUNTIF(Q6:Q17,"=F") + COUNTIF(Q6:Q17,"=")</f>
-        <v>12</v>
-      </c>
       <c r="R20" s="39">
-        <f>COUNTIF(R6:R17,"=F") + COUNTIF(R6:R17,"=")</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
@@ -3014,13 +3049,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
@@ -3034,7 +3069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3044,7 +3079,7 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3054,7 +3089,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3064,7 +3099,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -3074,7 +3109,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -3084,7 +3119,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -3094,7 +3129,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -3104,7 +3139,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -3114,7 +3149,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -3124,7 +3159,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -3134,7 +3169,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -3158,17 +3193,17 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="3"/>
-    <col min="5" max="6" width="11.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="5" max="6" width="11.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>14</v>
       </c>
@@ -3191,7 +3226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3215,7 +3250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3239,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3263,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3287,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3311,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3333,7 +3368,7 @@
       </c>
       <c r="G7" s="34"/>
     </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3355,7 +3390,7 @@
       </c>
       <c r="G8" s="34"/>
     </row>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3377,7 +3412,7 @@
       </c>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3399,7 +3434,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3421,7 +3456,7 @@
       </c>
       <c r="G11" s="34"/>
     </row>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3445,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3483,17 +3518,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
@@ -3519,7 +3554,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3542,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3565,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3588,7 +3623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3611,7 +3646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3634,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3657,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3680,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3703,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3726,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3749,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3772,7 +3807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3784,7 +3819,7 @@
       <c r="G13" s="29"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -3796,7 +3831,7 @@
       <c r="G14" s="31"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -3808,7 +3843,7 @@
       <c r="G15" s="31"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -3820,7 +3855,7 @@
       <c r="G16" s="31"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -3832,7 +3867,7 @@
       <c r="G17" s="31"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -3858,14 +3893,14 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="8" width="15.6640625" style="3" customWidth="1"/>
-    <col min="9" max="12" width="15.6640625" customWidth="1"/>
+    <col min="3" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="3">
@@ -3891,7 +3926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -3920,7 +3955,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -3950,7 +3985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -3980,7 +4015,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -4010,7 +4045,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -4040,7 +4075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -4070,7 +4105,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -4100,7 +4135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -4130,7 +4165,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -4160,7 +4195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -4190,7 +4225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -4220,7 +4255,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -4250,7 +4285,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -4290,17 +4325,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="35" t="s">
         <v>37</v>
       </c>
@@ -4308,7 +4343,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -4316,12 +4351,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -4329,7 +4364,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -4340,17 +4375,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -4358,22 +4393,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -4381,7 +4416,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -4401,18 +4436,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>18</v>
       </c>
@@ -4426,7 +4461,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4440,7 +4475,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4454,7 +4489,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4468,7 +4503,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4482,7 +4517,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4496,7 +4531,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="94">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -1543,14 +1543,14 @@
       </c>
       <c r="H2" s="2">
         <f>ASISTENCIA!S6</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2" s="11">
         <f>D2*0.4+E2*0.05+F2*0.05+G2*0.1+H2*0.2+I2*0.2</f>
-        <v>6.2500000000000009</v>
+        <v>6.4500000000000011</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1579,14 +1579,14 @@
       </c>
       <c r="H3" s="2">
         <f>ASISTENCIA!S7</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3" s="11">
         <f t="shared" ref="J3:J13" si="0">D3*0.4+E3*0.05+F3*0.05+G3*0.1+H3*0.2+I3*0.2</f>
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1615,14 +1615,14 @@
       </c>
       <c r="H4" s="2">
         <f>ASISTENCIA!S8</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
       </c>
       <c r="J4" s="11">
         <f t="shared" si="0"/>
-        <v>6.0500000000000007</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1651,14 +1651,14 @@
       </c>
       <c r="H5" s="2">
         <f>ASISTENCIA!S9</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="2">
         <v>0</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" si="0"/>
-        <v>6.3500000000000005</v>
+        <v>6.5500000000000007</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1687,14 +1687,14 @@
       </c>
       <c r="H6" s="2">
         <f>ASISTENCIA!S10</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" s="2">
         <v>0</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" si="0"/>
-        <v>5.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1721,14 +1721,14 @@
       </c>
       <c r="H7" s="2">
         <f>ASISTENCIA!S11</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7" s="11">
         <f t="shared" si="0"/>
-        <v>5.2000000000000011</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1757,14 +1757,14 @@
       </c>
       <c r="H8" s="2">
         <f>ASISTENCIA!S12</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I8" s="2">
         <v>0</v>
       </c>
       <c r="J8" s="11">
         <f t="shared" si="0"/>
-        <v>6.75</v>
+        <v>6.9500000000000011</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1793,14 +1793,14 @@
       </c>
       <c r="H9" s="2">
         <f>ASISTENCIA!S13</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9" s="11">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1829,14 +1829,14 @@
       </c>
       <c r="H10" s="2">
         <f>ASISTENCIA!S14</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" s="2">
         <v>0</v>
       </c>
       <c r="J10" s="11">
         <f t="shared" si="0"/>
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1865,14 +1865,14 @@
       </c>
       <c r="H11" s="2">
         <f>ASISTENCIA!S15</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" s="2">
         <v>0</v>
       </c>
       <c r="J11" s="11">
         <f t="shared" si="0"/>
-        <v>5.8500000000000005</v>
+        <v>6.0500000000000007</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1901,14 +1901,14 @@
       </c>
       <c r="H12" s="2">
         <f>ASISTENCIA!S16</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I12" s="2">
         <v>0</v>
       </c>
       <c r="J12" s="11">
         <f t="shared" si="0"/>
-        <v>5.8500000000000005</v>
+        <v>6.0500000000000007</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="H14" s="15">
         <f t="shared" si="1"/>
-        <v>14.666666666666666</v>
+        <v>15.583333333333334</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" si="1"/>
@@ -1972,7 +1972,7 @@
       </c>
       <c r="J14" s="15">
         <f t="shared" si="1"/>
-        <v>5.5666666666666673</v>
+        <v>5.75</v>
       </c>
     </row>
   </sheetData>
@@ -1991,15 +1991,15 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R25" sqref="R25"/>
+      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="15" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="16" max="18" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="16" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="9.7109375" style="3" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2201,11 +2201,13 @@
       <c r="P6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="6"/>
+      <c r="Q6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="R6" s="6"/>
       <c r="S6" s="2">
         <f>ROUNDUP( 20  - COUNTIF(C6:R6,"") - COUNTIF(D6:R6,"F") - COUNTIF(D6:R6,"T")/2,0)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2257,11 +2259,13 @@
       <c r="P7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q7" s="6"/>
+      <c r="Q7" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="R7" s="6"/>
       <c r="S7" s="2">
         <f t="shared" ref="S7:S17" si="0">ROUNDUP( 20  - COUNTIF(C7:R7,"") - COUNTIF(D7:R7,"F") - COUNTIF(D7:R7,"T")/2,0)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2313,11 +2317,13 @@
       <c r="P8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q8" s="6"/>
+      <c r="Q8" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="R8" s="6"/>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2369,11 +2375,13 @@
       <c r="P9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q9" s="6"/>
+      <c r="Q9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="R9" s="6"/>
       <c r="S9" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2425,11 +2433,13 @@
       <c r="P10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q10" s="6"/>
+      <c r="Q10" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="R10" s="6"/>
       <c r="S10" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2481,11 +2491,13 @@
       <c r="P11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="R11" s="6"/>
       <c r="S11" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2537,11 +2549,13 @@
       <c r="P12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q12" s="6"/>
+      <c r="Q12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="R12" s="6"/>
       <c r="S12" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2593,11 +2607,13 @@
       <c r="P13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q13" s="6"/>
+      <c r="Q13" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="R13" s="6"/>
       <c r="S13" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2649,11 +2665,13 @@
       <c r="P14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q14" s="6"/>
+      <c r="Q14" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="R14" s="6"/>
       <c r="S14" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2705,11 +2723,13 @@
       <c r="P15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="Q15" s="6"/>
+      <c r="Q15" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="R15" s="6"/>
       <c r="S15" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2761,11 +2781,13 @@
       <c r="P16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q16" s="6"/>
+      <c r="Q16" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="R16" s="6"/>
       <c r="S16" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -2817,7 +2839,9 @@
       <c r="P17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="Q17" s="6"/>
+      <c r="Q17" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="R17" s="6"/>
       <c r="S17" s="2">
         <f t="shared" si="0"/>
@@ -2886,7 +2910,7 @@
       </c>
       <c r="Q18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R18" s="39">
         <f t="shared" si="1"/>
@@ -2955,7 +2979,7 @@
       </c>
       <c r="Q19" s="39">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R19" s="39">
         <f t="shared" si="2"/>
@@ -3024,7 +3048,7 @@
       </c>
       <c r="Q20" s="39">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R20" s="39">
         <f t="shared" si="3"/>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7032"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -1466,26 +1466,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.44140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>39</v>
       </c>
       <c r="D2" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2">
         <v>11</v>
@@ -1543,17 +1543,17 @@
       </c>
       <c r="H2" s="2">
         <f>ASISTENCIA!S6</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J2" s="11">
-        <f>D2*0.4+E2*0.05+F2*0.05+G2*0.1+H2*0.2+I2*0.2</f>
-        <v>6.4500000000000011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <f>ROUNDDOWN( D2*0.4+E2*0.05+F2*0.05+G2*0.1+H2*0.2+I2*0.2,0)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2">
         <v>8</v>
@@ -1579,17 +1579,17 @@
       </c>
       <c r="H3" s="2">
         <f>ASISTENCIA!S7</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J3" s="11">
-        <f t="shared" ref="J3:J13" si="0">D3*0.4+E3*0.05+F3*0.05+G3*0.1+H3*0.2+I3*0.2</f>
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J3:J13" si="0">ROUNDDOWN( D3*0.4+E3*0.05+F3*0.05+G3*0.1+H3*0.2+I3*0.2,0)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>41</v>
       </c>
       <c r="D4" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2">
         <v>19</v>
@@ -1615,17 +1615,17 @@
       </c>
       <c r="H4" s="2">
         <f>ASISTENCIA!S8</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J4" s="11">
         <f t="shared" si="0"/>
-        <v>6.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>42</v>
       </c>
       <c r="D5" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2">
         <v>11</v>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="H5" s="2">
         <f>ASISTENCIA!S9</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" si="0"/>
-        <v>6.5500000000000007</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1672,7 +1672,7 @@
         <v>27</v>
       </c>
       <c r="D6" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2">
         <v>8</v>
@@ -1687,17 +1687,17 @@
       </c>
       <c r="H6" s="2">
         <f>ASISTENCIA!S10</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J6" s="11">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -1706,7 +1706,7 @@
         <v>28</v>
       </c>
       <c r="D7" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
@@ -1721,17 +1721,17 @@
       </c>
       <c r="H7" s="2">
         <f>ASISTENCIA!S11</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" s="11">
         <f t="shared" si="0"/>
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>43</v>
       </c>
       <c r="D8" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -1757,17 +1757,17 @@
       </c>
       <c r="H8" s="2">
         <f>ASISTENCIA!S12</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J8" s="11">
         <f t="shared" si="0"/>
-        <v>6.9500000000000011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>29</v>
       </c>
       <c r="D9" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
@@ -1793,17 +1793,17 @@
       </c>
       <c r="H9" s="2">
         <f>ASISTENCIA!S13</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J9" s="11">
         <f t="shared" si="0"/>
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>44</v>
       </c>
       <c r="D10" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
@@ -1829,17 +1829,17 @@
       </c>
       <c r="H10" s="2">
         <f>ASISTENCIA!S14</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J10" s="11">
         <f t="shared" si="0"/>
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>45</v>
       </c>
       <c r="D11" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
@@ -1865,17 +1865,17 @@
       </c>
       <c r="H11" s="2">
         <f>ASISTENCIA!S15</f>
+        <v>17</v>
+      </c>
+      <c r="I11" s="2">
         <v>16</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
       </c>
       <c r="J11" s="11">
         <f t="shared" si="0"/>
-        <v>6.0500000000000007</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>46</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E12" s="2">
         <v>19</v>
@@ -1901,17 +1901,17 @@
       </c>
       <c r="H12" s="2">
         <f>ASISTENCIA!S16</f>
+        <v>13</v>
+      </c>
+      <c r="I12" s="2">
         <v>12</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
       </c>
       <c r="J12" s="11">
         <f t="shared" si="0"/>
-        <v>6.0500000000000007</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
@@ -1920,7 +1920,7 @@
         <v>67</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
@@ -1935,20 +1935,20 @@
       </c>
       <c r="H13" s="2">
         <f>ASISTENCIA!S17</f>
+        <v>13</v>
+      </c>
+      <c r="I13" s="2">
         <v>12</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
       </c>
       <c r="J13" s="11">
         <f t="shared" si="0"/>
-        <v>3.5000000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" s="15">
         <f t="shared" ref="D14:J14" si="1">AVERAGE(D2:D13)</f>
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="E14" s="15">
         <f t="shared" si="1"/>
@@ -1964,15 +1964,15 @@
       </c>
       <c r="H14" s="15">
         <f t="shared" si="1"/>
-        <v>15.583333333333334</v>
+        <v>16.583333333333332</v>
       </c>
       <c r="I14" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="J14" s="15">
         <f t="shared" si="1"/>
-        <v>5.75</v>
+        <v>14.416666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -1987,23 +1987,23 @@
   </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="16" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="9.7109375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.88671875" customWidth="1"/>
+    <col min="3" max="16" width="9.6640625" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="9.6640625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
       <c r="A1" s="17" t="s">
         <v>19</v>
       </c>
@@ -2012,12 +2012,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
         <v>65</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -2206,11 +2206,11 @@
       </c>
       <c r="R6" s="6"/>
       <c r="S6" s="2">
-        <f>ROUNDUP( 20  - COUNTIF(C6:R6,"") - COUNTIF(D6:R6,"F") - COUNTIF(D6:R6,"T")/2,0)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <f>ROUNDUP( 20  - COUNTIF(C6:Q6,"") - COUNTIF(D6:Q6,"F") - COUNTIF(D6:Q6,"T")/2,0)</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -2264,11 +2264,11 @@
       </c>
       <c r="R7" s="6"/>
       <c r="S7" s="2">
-        <f t="shared" ref="S7:S17" si="0">ROUNDUP( 20  - COUNTIF(C7:R7,"") - COUNTIF(D7:R7,"F") - COUNTIF(D7:R7,"T")/2,0)</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <f t="shared" ref="S7:S17" si="0">ROUNDUP( 20  - COUNTIF(C7:Q7,"") - COUNTIF(D7:Q7,"F") - COUNTIF(D7:Q7,"T")/2,0)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -2323,10 +2323,10 @@
       <c r="R8" s="6"/>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -2381,10 +2381,10 @@
       <c r="R9" s="6"/>
       <c r="S9" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -2439,10 +2439,10 @@
       <c r="R10" s="6"/>
       <c r="S10" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -2497,10 +2497,10 @@
       <c r="R11" s="6"/>
       <c r="S11" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -2555,10 +2555,10 @@
       <c r="R12" s="6"/>
       <c r="S12" s="2">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -2613,10 +2613,10 @@
       <c r="R13" s="6"/>
       <c r="S13" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -2671,10 +2671,10 @@
       <c r="R14" s="6"/>
       <c r="S14" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -2729,10 +2729,10 @@
       <c r="R15" s="6"/>
       <c r="S15" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -2787,10 +2787,10 @@
       <c r="R16" s="6"/>
       <c r="S16" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -2845,10 +2845,10 @@
       <c r="R17" s="6"/>
       <c r="S17" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B18" s="32" t="s">
         <v>16</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B19" s="32" t="s">
         <v>15</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="B20" s="32" t="s">
         <v>17</v>
       </c>
@@ -3073,13 +3073,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="42.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3103,7 +3103,7 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3113,7 +3113,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3123,7 +3123,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -3133,7 +3133,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -3143,7 +3143,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -3183,7 +3183,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -3193,7 +3193,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -3217,17 +3217,17 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="3"/>
-    <col min="5" max="6" width="11.5703125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="3"/>
+    <col min="5" max="6" width="11.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>14</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3370,7 +3370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3392,7 +3392,7 @@
       </c>
       <c r="G7" s="34"/>
     </row>
-    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3414,7 +3414,7 @@
       </c>
       <c r="G8" s="34"/>
     </row>
-    <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3436,7 +3436,7 @@
       </c>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3458,7 +3458,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="G11" s="34"/>
     </row>
-    <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3542,17 +3542,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="40.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="G13" s="29"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -3855,7 +3855,7 @@
       <c r="G14" s="31"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -3867,7 +3867,7 @@
       <c r="G15" s="31"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -3879,7 +3879,7 @@
       <c r="G16" s="31"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -3891,7 +3891,7 @@
       <c r="G17" s="31"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -3917,14 +3917,14 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="8" width="15.7109375" style="3" customWidth="1"/>
-    <col min="9" max="12" width="15.7109375" customWidth="1"/>
+    <col min="3" max="8" width="15.6640625" style="3" customWidth="1"/>
+    <col min="9" max="12" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="3">
@@ -3950,7 +3950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -4159,7 +4159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -4353,13 +4353,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="35" customWidth="1"/>
+    <col min="1" max="1" width="58.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="35" t="s">
         <v>37</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -4375,12 +4375,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -4399,17 +4399,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -4417,22 +4417,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -4463,15 +4463,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.5703125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>18</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7032"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="94">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -1466,26 +1466,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.44140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
       <c r="B7" s="6">
         <v>6</v>
@@ -1731,7 +1731,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1767,7 +1767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1875,7 +1875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1911,7 +1911,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="6">
         <v>12</v>
@@ -1945,7 +1945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D14" s="15">
         <f t="shared" ref="D14:J14" si="1">AVERAGE(D2:D13)</f>
         <v>16.25</v>
@@ -1987,23 +1987,23 @@
   </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W12" sqref="W12"/>
+      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.88671875" customWidth="1"/>
-    <col min="3" max="16" width="9.6640625" style="3" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="9.6640625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="15.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="3" max="16" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="9.7109375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>19</v>
       </c>
@@ -2012,12 +2012,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
         <v>65</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C4" s="3">
         <v>1</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>14</v>
       </c>
@@ -2152,7 +2152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>1</v>
       </c>
@@ -2204,13 +2204,15 @@
       <c r="Q6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="6"/>
+      <c r="R6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="S6" s="2">
         <f>ROUNDUP( 20  - COUNTIF(C6:Q6,"") - COUNTIF(D6:Q6,"F") - COUNTIF(D6:Q6,"T")/2,0)</f>
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2</v>
       </c>
@@ -2268,7 +2270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>3</v>
       </c>
@@ -2320,13 +2322,15 @@
       <c r="Q8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R8" s="6"/>
+      <c r="R8" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="S8" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>4</v>
       </c>
@@ -2378,13 +2382,15 @@
       <c r="Q9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="6"/>
+      <c r="R9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="S9" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>5</v>
       </c>
@@ -2442,7 +2448,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>6</v>
       </c>
@@ -2494,13 +2500,15 @@
       <c r="Q11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="6"/>
+      <c r="R11" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="S11" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>7</v>
       </c>
@@ -2552,13 +2560,15 @@
       <c r="Q12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R12" s="6"/>
+      <c r="R12" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="S12" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>8</v>
       </c>
@@ -2610,13 +2620,15 @@
       <c r="Q13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R13" s="6"/>
+      <c r="R13" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="S13" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>9</v>
       </c>
@@ -2668,13 +2680,15 @@
       <c r="Q14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R14" s="6"/>
+      <c r="R14" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="S14" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>10</v>
       </c>
@@ -2726,13 +2740,15 @@
       <c r="Q15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="6"/>
+      <c r="R15" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="S15" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>11</v>
       </c>
@@ -2790,7 +2806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>12</v>
       </c>
@@ -2842,13 +2858,15 @@
       <c r="Q17" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R17" s="6"/>
+      <c r="R17" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="S17" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
         <v>16</v>
       </c>
@@ -2914,10 +2932,10 @@
       </c>
       <c r="R18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B19" s="32" t="s">
         <v>15</v>
       </c>
@@ -2986,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B20" s="32" t="s">
         <v>17</v>
       </c>
@@ -3052,7 +3070,7 @@
       </c>
       <c r="R20" s="39">
         <f t="shared" si="3"/>
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3073,13 +3091,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" customWidth="1"/>
-    <col min="2" max="2" width="42.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
@@ -3093,7 +3111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3103,7 +3121,7 @@
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3113,7 +3131,7 @@
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
     </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3123,7 +3141,7 @@
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -3133,7 +3151,7 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -3143,7 +3161,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -3153,7 +3171,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -3163,7 +3181,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -3173,7 +3191,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -3183,7 +3201,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -3193,7 +3211,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -3214,20 +3232,20 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="3"/>
-    <col min="5" max="6" width="11.5546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="3"/>
+    <col min="5" max="6" width="11.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>14</v>
       </c>
@@ -3250,7 +3268,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3274,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3298,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3322,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3346,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3370,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3392,7 +3410,7 @@
       </c>
       <c r="G7" s="34"/>
     </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3414,7 +3432,7 @@
       </c>
       <c r="G8" s="34"/>
     </row>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3436,7 +3454,7 @@
       </c>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3458,7 +3476,7 @@
       </c>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3480,7 +3498,7 @@
       </c>
       <c r="G11" s="34"/>
     </row>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3504,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3542,17 +3560,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="40.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>14</v>
       </c>
@@ -3578,7 +3596,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -3601,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -3624,7 +3642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
         <v>3</v>
       </c>
@@ -3647,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -3670,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -3693,7 +3711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -3716,7 +3734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>7</v>
       </c>
@@ -3739,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -3762,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -3785,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -3808,7 +3826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>11</v>
       </c>
@@ -3831,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -3843,7 +3861,7 @@
       <c r="G13" s="29"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -3855,7 +3873,7 @@
       <c r="G14" s="31"/>
       <c r="H14" s="10"/>
     </row>
-    <row r="15" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -3867,7 +3885,7 @@
       <c r="G15" s="31"/>
       <c r="H15" s="10"/>
     </row>
-    <row r="16" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
         <v>15</v>
       </c>
@@ -3879,7 +3897,7 @@
       <c r="G16" s="31"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -3891,7 +3909,7 @@
       <c r="G17" s="31"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="18" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
         <v>17</v>
       </c>
@@ -3917,14 +3935,14 @@
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="8" width="15.6640625" style="3" customWidth="1"/>
-    <col min="9" max="12" width="15.6640625" customWidth="1"/>
+    <col min="3" max="8" width="15.7109375" style="3" customWidth="1"/>
+    <col min="9" max="12" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="3">
@@ -3950,7 +3968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
@@ -3979,7 +3997,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -4009,7 +4027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -4039,7 +4057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -4069,7 +4087,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -4099,7 +4117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -4129,7 +4147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -4159,7 +4177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -4189,7 +4207,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -4219,7 +4237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -4249,7 +4267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -4279,7 +4297,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -4309,7 +4327,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -4353,13 +4371,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" style="35" customWidth="1"/>
+    <col min="1" max="1" width="58.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" s="35" t="s">
         <v>37</v>
       </c>
@@ -4367,7 +4385,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -4375,12 +4393,12 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -4388,7 +4406,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -4399,17 +4417,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -4417,22 +4435,22 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -4440,7 +4458,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -4463,15 +4481,15 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.5546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>18</v>
       </c>
@@ -4485,7 +4503,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4499,7 +4517,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4513,7 +4531,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4527,7 +4545,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4541,7 +4559,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4555,7 +4573,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -1466,10 +1466,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1724,11 +1724,11 @@
         <v>16</v>
       </c>
       <c r="I7" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" s="11">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1781,7 +1781,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F9" s="11">
         <f>PRACT2!I10</f>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="J9" s="11">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
@@ -1931,18 +1931,18 @@
       </c>
       <c r="G13" s="2">
         <f>PARTICIPACION!F13</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H13" s="2">
         <f>ASISTENCIA!S17</f>
         <v>13</v>
       </c>
       <c r="I13" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J13" s="11">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1952,7 +1952,7 @@
       </c>
       <c r="E14" s="15">
         <f t="shared" si="1"/>
-        <v>9.6666666666666661</v>
+        <v>10.916666666666666</v>
       </c>
       <c r="F14" s="15">
         <f t="shared" si="1"/>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="G14" s="15">
         <f t="shared" si="1"/>
-        <v>14.916666666666666</v>
+        <v>15.583333333333334</v>
       </c>
       <c r="H14" s="15">
         <f t="shared" si="1"/>
@@ -1968,11 +1968,11 @@
       </c>
       <c r="I14" s="15">
         <f t="shared" si="1"/>
-        <v>13.333333333333334</v>
+        <v>13.583333333333334</v>
       </c>
       <c r="J14" s="15">
         <f t="shared" si="1"/>
-        <v>14.416666666666666</v>
+        <v>14.666666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -1987,7 +1987,7 @@
   </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -3402,7 +3402,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="12">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" si="0"/>
@@ -3468,7 +3468,7 @@
         <v>15</v>
       </c>
       <c r="E10" s="12">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" si="0"/>
@@ -3536,11 +3536,11 @@
         <v>13</v>
       </c>
       <c r="E13" s="10">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>

--- a/Docs/Control.xlsx
+++ b/Docs/Control.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="7035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RESUMEN" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="94">
   <si>
     <t>APELLIDOS</t>
   </si>
@@ -1466,7 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
@@ -1987,19 +1987,19 @@
   </sheetPr>
   <dimension ref="A1:S20"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R9" sqref="R9"/>
+      <selection pane="bottomRight" activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
-    <col min="3" max="16" width="9.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="17" max="18" width="9.7109375" style="3" customWidth="1"/>
+    <col min="3" max="15" width="9.7109375" style="3" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="9.7109375" style="3" customWidth="1"/>
     <col min="19" max="19" width="15.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2264,7 +2264,9 @@
       <c r="Q7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="6"/>
+      <c r="R7" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="S7" s="2">
         <f t="shared" ref="S7:S17" si="0">ROUNDUP( 20  - COUNTIF(C7:Q7,"") - COUNTIF(D7:Q7,"F") - COUNTIF(D7:Q7,"T")/2,0)</f>
         <v>17</v>
@@ -2442,7 +2444,9 @@
       <c r="Q10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="6"/>
+      <c r="R10" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="S10" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2800,7 +2804,9 @@
       <c r="Q16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="R16" s="6"/>
+      <c r="R16" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="S16" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
